--- a/CaUWMET/tests/CaUWMET_CPED example for Python test.xlsx
+++ b/CaUWMET/tests/CaUWMET_CPED example for Python test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KD012200\GitHub_Repos\California-Urban-Water-Management-Economic-Tool\CaUWMET\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FF62B3-2C9E-488A-9867-505BA1505519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D6D76-B7F5-4B1D-9F30-D2F8ED80F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -454,12 +454,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -970,9 +964,7 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1019,6 +1011,8 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1116,61 +1110,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69241.133704706794</c:v>
+                  <c:v>69196.133479706245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138482.26740941359</c:v>
+                  <c:v>138392.26695941272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207723.40111412061</c:v>
+                  <c:v>207588.40043911897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276964.53481882741</c:v>
+                  <c:v>276784.53391882544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>346205.6685235342</c:v>
+                  <c:v>345980.66739853169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>415446.80222824099</c:v>
+                  <c:v>415176.80087823793</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>484687.9359329479</c:v>
+                  <c:v>484372.93435794441</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>553929.0696376547</c:v>
+                  <c:v>553569.06783765077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>623170.20334236161</c:v>
+                  <c:v>622765.20131735713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>692411.3370470684</c:v>
+                  <c:v>691961.33479706338</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>761652.4707517752</c:v>
+                  <c:v>761157.46827676974</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>830893.60445648211</c:v>
+                  <c:v>830353.6017564761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>900134.73816118902</c:v>
+                  <c:v>899549.73523618234</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>969375.87186589593</c:v>
+                  <c:v>968745.86871588859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1038617.0055706028</c:v>
+                  <c:v>1037942.0021955948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1107858.1392753099</c:v>
+                  <c:v>1107138.1356753011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1177099.2729800167</c:v>
+                  <c:v>1176334.2691550073</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1246340.4066847237</c:v>
+                  <c:v>1245530.4026347136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1384822.674094137</c:v>
+                  <c:v>1383922.6695941268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,61 +1179,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49093255.90639361</c:v>
+                  <c:v>49058502.392924607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107631295.13148138</c:v>
+                  <c:v>107548140.87291643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177932013.87378252</c:v>
+                  <c:v>177781681.71136856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>263015692.3218281</c:v>
+                  <c:v>262772154.91537166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>366864576.15928131</c:v>
+                  <c:v>366491430.72424567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>494799380.81218284</c:v>
+                  <c:v>494245158.94430643</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>654037456.44914699</c:v>
+                  <c:v>653228433.90731168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>854542183.67366457</c:v>
+                  <c:v>853371068.88973713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1110357812.5710204</c:v>
+                  <c:v>1108665366.9296954</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1441795006.7728148</c:v>
+                  <c:v>1439338897.8280289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1879209902.717243</c:v>
+                  <c:v>1875608810.4274888</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2470055542.8855529</c:v>
+                  <c:v>2464680250.0551219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3142351944.6778345</c:v>
+                  <c:v>3136169175.4372315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4006912219.3332076</c:v>
+                  <c:v>3997692702.3955197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5219187012.7544308</c:v>
+                  <c:v>5205177019.6790686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6964264251.6456213</c:v>
+                  <c:v>6942461766.0623312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9555822354.2752323</c:v>
+                  <c:v>9520867655.2637615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13551414996.367506</c:v>
+                  <c:v>13493246564.177263</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26416028944.919064</c:v>
+                  <c:v>26403482129.485783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:BA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y40" sqref="Y40"/>
+    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1869,7 +1863,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="145" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1901,7 +1895,7 @@
       <c r="AG1" s="1"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="146" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="1"/>
@@ -1981,7 +1975,7 @@
       <c r="A6" s="81"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
-      <c r="D6" s="132"/>
+      <c r="D6" s="130"/>
       <c r="F6" s="90"/>
       <c r="G6" s="82"/>
       <c r="H6" s="82"/>
@@ -2027,7 +2021,7 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="129">
+      <c r="D7" s="128">
         <f>1+(((1+base_conservation)*(1+incremental_conservation)-1)*hardening_factor)</f>
         <v>1.0000050000111111</v>
       </c>
@@ -2044,7 +2038,7 @@
       <c r="N7" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="135">
+      <c r="O7" s="133">
         <f>base_use_total-15</f>
         <v>1499985</v>
       </c>
@@ -2069,7 +2063,7 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="128">
         <f>5/base_use_total</f>
         <v>3.3333333333333333E-6</v>
       </c>
@@ -2208,7 +2202,7 @@
         <f>Q11/(p1_base^elasticity_sf)</f>
         <v>4108949.9456299157</v>
       </c>
-      <c r="R10" s="133">
+      <c r="R10" s="131">
         <f>base_use_mf/(p1_base^elasticity_mf)</f>
         <v>1223679.7878046185</v>
       </c>
@@ -2224,12 +2218,12 @@
         <f>base_use_lndscp/(p1_base^elasticity_lndscp)</f>
         <v>3001535.7319248011</v>
       </c>
-      <c r="V10" s="134">
+      <c r="V10" s="132">
         <f>size_sf*base_use_total</f>
         <v>1125000</v>
       </c>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
@@ -2252,7 +2246,7 @@
       <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="140" t="s">
+      <c r="N11" s="138" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="7"/>
@@ -2279,12 +2273,12 @@
         <f>(size_lndscp*O7)</f>
         <v>224997.75</v>
       </c>
-      <c r="V11" s="134">
+      <c r="V11" s="132">
         <f>size_sf*O7</f>
         <v>1124988.75</v>
       </c>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
@@ -2300,13 +2294,13 @@
         <v>29</v>
       </c>
       <c r="H12" s="104">
-        <f>1384815.75/1500000</f>
-        <v>0.92321050000000004</v>
+        <f>1383915.75/1500000</f>
+        <v>0.9226105</v>
       </c>
       <c r="I12" s="85"/>
       <c r="J12" s="122">
         <f>Total_actual_shortage*base_use_total</f>
-        <v>1384815.75</v>
+        <v>1383915.75</v>
       </c>
       <c r="N12" s="29" t="s">
         <v>28</v>
@@ -2335,12 +2329,12 @@
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="V12" s="141">
+      <c r="V12" s="139">
         <f>V11/coeff_sf</f>
         <v>0.27378984044244314</v>
       </c>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
@@ -2358,21 +2352,21 @@
         <v>30</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="128">
+      <c r="H13" s="149">
         <f>H12*D7</f>
-        <v>0.92321511606275797</v>
+        <v>0.92261511306275124</v>
       </c>
       <c r="I13" s="97" t="s">
         <v>17</v>
       </c>
       <c r="J13">
         <f>Total_adjusted_shortage*base_use_total</f>
-        <v>1384822.674094137</v>
+        <v>1383922.6695941268</v>
       </c>
       <c r="K13" s="74"/>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
-      <c r="N13" s="140" t="s">
+      <c r="N13" s="138" t="s">
         <v>69</v>
       </c>
       <c r="Q13" s="11">
@@ -2404,7 +2398,7 @@
       </c>
       <c r="H14" s="127">
         <f>Total_adjusted_shortage*base_use_total</f>
-        <v>1384822.674094137</v>
+        <v>1383922.6695941268</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="5"/>
@@ -2487,10 +2481,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D16" s="126"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="139"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
       <c r="J16" s="5"/>
       <c r="K16" s="74"/>
       <c r="L16" s="74"/>
@@ -2703,1177 +2697,1177 @@
       </c>
       <c r="BA19" s="65">
         <f t="shared" ref="BA19:BA38" si="15">Total_adjusted_shortage*use_3-foregone_use_total</f>
-        <v>92321.511606275802</v>
+        <v>92261.511306275119</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B20" s="60">
         <f t="shared" si="1"/>
-        <v>40139.386257025973</v>
+        <v>40113.299430940031</v>
       </c>
       <c r="C20" s="53">
         <f t="shared" si="2"/>
-        <v>3.5679811248802241E-2</v>
+        <v>3.5656622727062853E-2</v>
       </c>
       <c r="D20" s="55">
         <f t="shared" si="3"/>
-        <v>12041.815877107791</v>
+        <v>12033.989829282009</v>
       </c>
       <c r="E20" s="53">
         <f t="shared" si="4"/>
-        <v>2.1407886749281343E-2</v>
+        <v>2.1393973636237712E-2</v>
       </c>
       <c r="F20" s="55">
         <f t="shared" si="5"/>
-        <v>2006.9693128512986</v>
+        <v>2005.6649715470014</v>
       </c>
       <c r="G20" s="53">
         <f t="shared" si="6"/>
-        <v>8.9199528122005604E-3</v>
+        <v>8.9141556817657133E-3</v>
       </c>
       <c r="H20" s="55">
         <f t="shared" si="7"/>
-        <v>2207.6662441364288</v>
+        <v>2206.2314687017015</v>
       </c>
       <c r="I20" s="53">
         <f t="shared" si="8"/>
-        <v>1.9623896186841235E-2</v>
+        <v>1.9611142499884569E-2</v>
       </c>
       <c r="J20" s="55">
         <f t="shared" si="9"/>
-        <v>12844.603602248311</v>
+        <v>12836.25581790081</v>
       </c>
       <c r="K20" s="53">
         <f t="shared" si="10"/>
-        <v>5.7087697998083588E-2</v>
+        <v>5.7050596363300565E-2</v>
       </c>
       <c r="L20" s="54">
         <f t="shared" si="11"/>
-        <v>69240.441293369804</v>
+        <v>69195.441518371546</v>
       </c>
       <c r="M20" s="55"/>
       <c r="N20" s="51">
         <f>($N$38/20)+N19</f>
-        <v>4.6160755803137901E-2</v>
+        <v>4.613075565313756E-2</v>
       </c>
       <c r="O20" s="43">
         <f>base_use_total-(N20*base_use_total)</f>
-        <v>1430758.8662952932</v>
+        <v>1430803.8665202938</v>
       </c>
       <c r="P20" s="45">
         <f t="shared" si="13"/>
-        <v>69241.133704706794</v>
+        <v>69196.133479706245</v>
       </c>
       <c r="Y20" s="64">
         <f>IF(shortage_SF&lt;=lowerbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-lowerbound_SF)*EXP((LN((base_use_sf*(1-lowerbound_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)))), IF(shortage_SF&gt;=upperbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-upperbound_SF))*EXP((LN((base_use_sf*(1-upperbound_SF))/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)), ((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf-shortage_af_SF)*EXP((LN((base_use_sf-shortage_af_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))))</f>
-        <v>28594938.330449641</v>
+        <v>28574605.296013534</v>
       </c>
       <c r="AF20" s="64">
         <f t="shared" ref="AF20:AF37" si="16">IF(shortage_MF&lt;=lowerbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-lowerbound_MF)*EXP((LN((base_use_mf*(1-lowerbound_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)))), IF(shortage_MF&gt;=upperbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-upperbound_MF))*EXP((LN((base_use_mf*(1-upperbound_MF))/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)), ((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf-shortage_af_MF)*EXP((LN((base_use_mf-shortage_af_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))))</f>
-        <v>8574563.7275194302</v>
+        <v>8568471.8775434792</v>
       </c>
       <c r="AL20" s="64">
         <f t="shared" ref="AL20:AL37" si="17">IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>1364666.8343251813</v>
+        <v>1363739.5678167623</v>
       </c>
       <c r="AR20" s="64">
         <f t="shared" ref="AR20:AR37" si="18">IF(shortage_COM&lt;=lowerbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-lowerbound_COM)*EXP((LN((base_use_comm*(1-lowerbound_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)))), IF(shortage_COM&gt;=upperbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-upperbound_COM))*EXP((LN((base_use_comm*(1-upperbound_COM))/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)), ((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm-shortage_af_COM)*EXP((LN((base_use_comm-shortage_af_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))))</f>
-        <v>1571914.3481382746</v>
+        <v>1570797.6915409286</v>
       </c>
       <c r="AX20" s="64">
         <f t="shared" ref="AX20:AX37" si="19">IF(shortage_LNDSCP&lt;=$U$14,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-low_bound_lndscp)*EXP((LN((base_use_lndscp*(1-low_bound_lndscp)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)))), IF(shortage_LNDSCP&gt;=upperbound_LNDSCP,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-upperbound_LNDSCP))*EXP((LN((base_use_lndscp*(1-upperbound_LNDSCP))/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)), ((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)*EXP((LN((base_use_lndscp-shortage_af_LNDSCP)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))))</f>
-        <v>8987172.6659610868</v>
+        <v>8980887.9600099027</v>
       </c>
       <c r="AY20" s="48">
         <f t="shared" ref="AY20:AY38" si="20">AZ20/P45</f>
-        <v>709.02220611505243</v>
+        <v>708.98105456093754</v>
       </c>
       <c r="AZ20" s="14">
         <f t="shared" si="14"/>
-        <v>49093255.90639361</v>
+        <v>49058502.392924607</v>
       </c>
       <c r="BA20" s="65">
         <f t="shared" si="15"/>
-        <v>23080.377901569009</v>
+        <v>23065.377826568874</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B21" s="60">
         <f t="shared" si="1"/>
-        <v>80278.772514051947</v>
+        <v>80226.598861880062</v>
       </c>
       <c r="C21" s="53">
         <f t="shared" si="2"/>
-        <v>7.1359622497604483E-2</v>
+        <v>7.1313245454125707E-2</v>
       </c>
       <c r="D21" s="55">
         <f t="shared" si="3"/>
-        <v>24083.631754215581</v>
+        <v>24067.979658564018</v>
       </c>
       <c r="E21" s="53">
         <f t="shared" si="4"/>
-        <v>4.2815773498562686E-2</v>
+        <v>4.2787947272475424E-2</v>
       </c>
       <c r="F21" s="55">
         <f t="shared" si="5"/>
-        <v>4013.9386257025972</v>
+        <v>4011.3299430940028</v>
       </c>
       <c r="G21" s="53">
         <f t="shared" si="6"/>
-        <v>1.7839905624401121E-2</v>
+        <v>1.7828311363531427E-2</v>
       </c>
       <c r="H21" s="55">
         <f t="shared" si="7"/>
-        <v>4415.3324882728575</v>
+        <v>4412.462937403403</v>
       </c>
       <c r="I21" s="53">
         <f t="shared" si="8"/>
-        <v>3.924779237368247E-2</v>
+        <v>3.9222284999769139E-2</v>
       </c>
       <c r="J21" s="55">
         <f t="shared" si="9"/>
-        <v>25689.207204496623</v>
+        <v>25672.51163580162</v>
       </c>
       <c r="K21" s="53">
         <f t="shared" si="10"/>
-        <v>0.11417539599616718</v>
+        <v>0.11410119272660113</v>
       </c>
       <c r="L21" s="54">
         <f t="shared" si="11"/>
-        <v>138480.88258673961</v>
+        <v>138390.88303674309</v>
       </c>
       <c r="M21" s="55"/>
       <c r="N21" s="51">
         <f t="shared" ref="N21:N37" si="21">($N$38/20)+N20</f>
-        <v>9.2321511606275802E-2</v>
+        <v>9.2261511306275121E-2</v>
       </c>
       <c r="O21" s="43">
         <f t="shared" si="12"/>
-        <v>1361517.7325905864</v>
+        <v>1361607.7330405873</v>
       </c>
       <c r="P21" s="45">
         <f t="shared" si="13"/>
-        <v>138482.26740941359</v>
+        <v>138392.26695941272</v>
       </c>
       <c r="Y21" s="64">
         <f t="shared" ref="Y21:Y37" si="22">IF(shortage_SF&lt;=lowerbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-lowerbound_SF)*EXP((LN((base_use_sf*(1-lowerbound_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)))), IF(shortage_SF&gt;=upperbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-upperbound_SF))*EXP((LN((base_use_sf*(1-upperbound_SF))/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)), ((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf-shortage_af_SF)*EXP((LN((base_use_sf-shortage_af_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))))</f>
-        <v>63005976.503028065</v>
+        <v>62956877.512874365</v>
       </c>
       <c r="AF21" s="64">
         <f t="shared" si="16"/>
-        <v>18864609.512279086</v>
+        <v>18849960.653162234</v>
       </c>
       <c r="AL21" s="64">
         <f t="shared" si="17"/>
-        <v>2857864.5775610451</v>
+        <v>2855834.6239179652</v>
       </c>
       <c r="AR21" s="64">
         <f t="shared" si="18"/>
-        <v>3457675.6458920669</v>
+        <v>3454991.8274118621</v>
       </c>
       <c r="AX21" s="64">
         <f t="shared" si="19"/>
-        <v>19445168.892721102</v>
+        <v>19430476.255549997</v>
       </c>
       <c r="AY21" s="48">
         <f t="shared" si="20"/>
-        <v>777.22466061987973</v>
+        <v>777.12924990496322</v>
       </c>
       <c r="AZ21" s="14">
         <f t="shared" si="14"/>
-        <v>107631295.13148138</v>
+        <v>107548140.87291643</v>
       </c>
       <c r="BA21" s="65">
         <f t="shared" si="15"/>
-        <v>-46160.755803137785</v>
+        <v>-46130.755653137603</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B22" s="60">
         <f t="shared" si="1"/>
-        <v>120418.15877107794</v>
+        <v>120339.89829282007</v>
       </c>
       <c r="C22" s="53">
         <f t="shared" si="2"/>
-        <v>0.10703943374640675</v>
+        <v>0.10696986818118855</v>
       </c>
       <c r="D22" s="55">
         <f t="shared" si="3"/>
-        <v>36125.447631323375</v>
+        <v>36101.969487846021</v>
       </c>
       <c r="E22" s="53">
         <f t="shared" si="4"/>
-        <v>6.4223660247844039E-2</v>
+        <v>6.4181920908713122E-2</v>
       </c>
       <c r="F22" s="55">
         <f t="shared" si="5"/>
-        <v>6020.9079385538971</v>
+        <v>6016.9949146410036</v>
       </c>
       <c r="G22" s="53">
         <f t="shared" si="6"/>
-        <v>2.6759858436601686E-2</v>
+        <v>2.6742467045297137E-2</v>
       </c>
       <c r="H22" s="55">
         <f t="shared" si="7"/>
-        <v>6622.9987324092872</v>
+        <v>6618.6944061051054</v>
       </c>
       <c r="I22" s="53">
         <f t="shared" si="8"/>
-        <v>5.8871688560523716E-2</v>
+        <v>5.8833427499653708E-2</v>
       </c>
       <c r="J22" s="55">
         <f t="shared" si="9"/>
-        <v>38533.810806744943</v>
+        <v>38508.767453702429</v>
       </c>
       <c r="K22" s="53">
         <f t="shared" si="10"/>
-        <v>0.1712630939942508</v>
+        <v>0.1711517890899017</v>
       </c>
       <c r="L22" s="54">
         <f t="shared" si="11"/>
-        <v>207721.32388010944</v>
+        <v>207586.32455511461</v>
       </c>
       <c r="M22" s="55"/>
       <c r="N22" s="51">
         <f t="shared" si="21"/>
-        <v>0.13848226740941372</v>
+        <v>0.13839226695941267</v>
       </c>
       <c r="O22" s="43">
         <f t="shared" si="12"/>
-        <v>1292276.5988858794</v>
+        <v>1292411.599560881</v>
       </c>
       <c r="P22" s="45">
         <f t="shared" si="13"/>
-        <v>207723.40111412061</v>
+        <v>207588.40043911897</v>
       </c>
       <c r="Y22" s="64">
         <f t="shared" si="22"/>
-        <v>104712216.44636431</v>
+        <v>104622636.69087741</v>
       </c>
       <c r="AF22" s="64">
         <f t="shared" si="16"/>
-        <v>31263863.4651848</v>
+        <v>31237333.955084987</v>
       </c>
       <c r="AL22" s="64">
         <f t="shared" si="17"/>
-        <v>4493035.2592934649</v>
+        <v>4489699.5597629938</v>
       </c>
       <c r="AR22" s="64">
         <f t="shared" si="18"/>
-        <v>5728379.9914672114</v>
+        <v>5723523.8166936468</v>
       </c>
       <c r="AX22" s="64">
         <f t="shared" si="19"/>
-        <v>31734518.711472735</v>
+        <v>31708487.68894954</v>
       </c>
       <c r="AY22" s="48">
         <f t="shared" si="20"/>
-        <v>856.5857413343374</v>
+        <v>856.41861609648095</v>
       </c>
       <c r="AZ22" s="14">
         <f t="shared" si="14"/>
-        <v>177932013.87378252</v>
+        <v>177781681.71136856</v>
       </c>
       <c r="BA22" s="65">
         <f t="shared" si="15"/>
-        <v>-115401.88950784481</v>
+        <v>-115326.88913284385</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B23" s="60">
         <f t="shared" si="1"/>
-        <v>160557.54502810389</v>
+        <v>160453.19772376012</v>
       </c>
       <c r="C23" s="53">
         <f t="shared" si="2"/>
-        <v>0.14271924499520897</v>
+        <v>0.14262649090825141</v>
       </c>
       <c r="D23" s="55">
         <f t="shared" si="3"/>
-        <v>48167.263508431162</v>
+        <v>48135.959317128036</v>
       </c>
       <c r="E23" s="53">
         <f t="shared" si="4"/>
-        <v>8.5631546997125371E-2</v>
+        <v>8.5575894544950848E-2</v>
       </c>
       <c r="F23" s="55">
         <f t="shared" si="5"/>
-        <v>8027.8772514051943</v>
+        <v>8022.6598861880057</v>
       </c>
       <c r="G23" s="53">
         <f t="shared" si="6"/>
-        <v>3.5679811248802241E-2</v>
+        <v>3.5656622727062853E-2</v>
       </c>
       <c r="H23" s="55">
         <f t="shared" si="7"/>
-        <v>8830.664976545715</v>
+        <v>8824.925874806806</v>
       </c>
       <c r="I23" s="53">
         <f t="shared" si="8"/>
-        <v>7.8495584747364941E-2</v>
+        <v>7.8444569999538277E-2</v>
       </c>
       <c r="J23" s="55">
         <f t="shared" si="9"/>
-        <v>51378.414408993245</v>
+        <v>51345.023271603241</v>
       </c>
       <c r="K23" s="53">
         <f t="shared" si="10"/>
-        <v>0.22835079199233435</v>
+        <v>0.22820238545320226</v>
       </c>
       <c r="L23" s="54">
         <f t="shared" si="11"/>
-        <v>276961.76517347922</v>
+        <v>276781.76607348619</v>
       </c>
       <c r="M23" s="55"/>
       <c r="N23" s="51">
         <f t="shared" si="21"/>
-        <v>0.1846430232125516</v>
+        <v>0.18452302261255024</v>
       </c>
       <c r="O23" s="43">
         <f t="shared" si="12"/>
-        <v>1223035.4651811726</v>
+        <v>1223215.4660811746</v>
       </c>
       <c r="P23" s="45">
         <f t="shared" si="13"/>
-        <v>276964.53481882741</v>
+        <v>276784.53391882544</v>
       </c>
       <c r="Y23" s="64">
         <f>IF(shortage_SF&lt;=lowerbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-lowerbound_SF)*EXP((LN((base_use_sf*(1-lowerbound_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)))), IF(shortage_SF&gt;=upperbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-upperbound_SF))*EXP((LN((base_use_sf*(1-upperbound_SF))/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)), ((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf-shortage_af_SF)*EXP((LN((base_use_sf-shortage_af_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))))</f>
-        <v>155650806.55850789</v>
+        <v>155504365.87194231</v>
       </c>
       <c r="AF23" s="64">
         <f t="shared" si="16"/>
-        <v>46268587.224460624</v>
+        <v>46225693.334588774</v>
       </c>
       <c r="AL23" s="64">
         <f>IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>6285169.1296790633</v>
+        <v>6280292.7244417835</v>
       </c>
       <c r="AR23" s="64">
         <f t="shared" si="18"/>
-        <v>8473225.9030350968</v>
+        <v>8465384.4106408022</v>
       </c>
       <c r="AX23" s="64">
         <f t="shared" si="19"/>
-        <v>46337903.506145418</v>
+        <v>46296418.573757976</v>
       </c>
       <c r="AY23" s="48">
         <f t="shared" si="20"/>
-        <v>949.64146790585028</v>
+        <v>949.37916168441518</v>
       </c>
       <c r="AZ23" s="14">
         <f t="shared" si="14"/>
-        <v>263015692.3218281</v>
+        <v>262772154.91537166</v>
       </c>
       <c r="BA23" s="65">
         <f t="shared" si="15"/>
-        <v>-184643.0232125516</v>
+        <v>-184523.02261255032</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B24" s="60">
         <f t="shared" si="1"/>
-        <v>200696.93128512986</v>
+        <v>200566.49715470016</v>
       </c>
       <c r="C24" s="53">
         <f t="shared" si="2"/>
-        <v>0.1783990562440112</v>
+        <v>0.17828311363531427</v>
       </c>
       <c r="D24" s="55">
         <f t="shared" si="3"/>
-        <v>60209.079385538957</v>
+        <v>60169.949146410043</v>
       </c>
       <c r="E24" s="53">
         <f t="shared" si="4"/>
-        <v>0.10703943374640672</v>
+        <v>0.10696986818118856</v>
       </c>
       <c r="F24" s="55">
         <f t="shared" si="5"/>
-        <v>10034.846564256493</v>
+        <v>10028.324857735008</v>
       </c>
       <c r="G24" s="53">
         <f t="shared" si="6"/>
-        <v>4.45997640610028E-2</v>
+        <v>4.4570778408828567E-2</v>
       </c>
       <c r="H24" s="55">
         <f t="shared" si="7"/>
-        <v>11038.331220682143</v>
+        <v>11031.157343508508</v>
       </c>
       <c r="I24" s="53">
         <f t="shared" si="8"/>
-        <v>9.8119480934206166E-2</v>
+        <v>9.8055712499422854E-2</v>
       </c>
       <c r="J24" s="55">
         <f t="shared" si="9"/>
-        <v>64223.018011241555</v>
+        <v>64181.279089504045</v>
       </c>
       <c r="K24" s="53">
         <f t="shared" si="10"/>
-        <v>0.28543848999041793</v>
+        <v>0.28525298181650283</v>
       </c>
       <c r="L24" s="54">
         <f t="shared" si="11"/>
-        <v>346202.20646684902</v>
+        <v>345977.20759185776</v>
       </c>
       <c r="M24" s="55"/>
       <c r="N24" s="51">
         <f t="shared" si="21"/>
-        <v>0.23080377901568949</v>
+        <v>0.23065377826568781</v>
       </c>
       <c r="O24" s="43">
         <f t="shared" si="12"/>
-        <v>1153794.3314764658</v>
+        <v>1154019.3326014683</v>
       </c>
       <c r="P24" s="45">
         <f t="shared" si="13"/>
-        <v>346205.6685235342</v>
+        <v>345980.66739853169</v>
       </c>
       <c r="Y24" s="64">
         <f t="shared" si="22"/>
-        <v>218386466.7927514</v>
+        <v>218160082.25755116</v>
       </c>
       <c r="AF24" s="64">
         <f t="shared" si="16"/>
-        <v>64507611.40832787</v>
+        <v>64442295.962985493</v>
       </c>
       <c r="AL24" s="64">
         <f t="shared" si="17"/>
-        <v>8250999.6997335795</v>
+        <v>8244310.7907152753</v>
       </c>
       <c r="AR24" s="64">
         <f t="shared" si="18"/>
-        <v>11804655.527570929</v>
+        <v>11792735.863012906</v>
       </c>
       <c r="AX24" s="64">
         <f t="shared" si="19"/>
-        <v>63914842.730897605</v>
+        <v>63852005.849980861</v>
       </c>
       <c r="AY24" s="48">
         <f t="shared" si="20"/>
-        <v>1059.6776536063553</v>
+        <v>1059.2882716285169</v>
       </c>
       <c r="AZ24" s="14">
         <f t="shared" si="14"/>
-        <v>366864576.15928131</v>
+        <v>366491430.72424567</v>
       </c>
       <c r="BA24" s="65">
         <f t="shared" si="15"/>
-        <v>-253884.1569172584</v>
+        <v>-253719.15609225657</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B25" s="60">
         <f t="shared" si="1"/>
-        <v>240836.31754215583</v>
+        <v>240679.79658564014</v>
       </c>
       <c r="C25" s="53">
         <f t="shared" si="2"/>
-        <v>0.21407886749281343</v>
+        <v>0.21393973636237709</v>
       </c>
       <c r="D25" s="55">
         <f t="shared" si="3"/>
-        <v>72250.895262646736</v>
+        <v>72203.938975692043</v>
       </c>
       <c r="E25" s="53">
         <f t="shared" si="4"/>
-        <v>0.12844732049568805</v>
+        <v>0.12836384181742624</v>
       </c>
       <c r="F25" s="55">
         <f t="shared" si="5"/>
-        <v>12041.815877107791</v>
+        <v>12033.989829282007</v>
       </c>
       <c r="G25" s="53">
         <f t="shared" si="6"/>
-        <v>5.3519716873203359E-2</v>
+        <v>5.3484934090594273E-2</v>
       </c>
       <c r="H25" s="55">
         <f t="shared" si="7"/>
-        <v>13245.997464818573</v>
+        <v>13237.388812210211</v>
       </c>
       <c r="I25" s="53">
         <f t="shared" si="8"/>
-        <v>0.1177433771210474</v>
+        <v>0.11766685499930742</v>
       </c>
       <c r="J25" s="55">
         <f t="shared" si="9"/>
-        <v>77067.621613489871</v>
+        <v>77017.534907404857</v>
       </c>
       <c r="K25" s="53">
         <f t="shared" si="10"/>
-        <v>0.34252618798850154</v>
+        <v>0.34230357817980339</v>
       </c>
       <c r="L25" s="54">
         <f t="shared" si="11"/>
-        <v>415442.64776021882</v>
+        <v>415172.64911022922</v>
       </c>
       <c r="M25" s="55"/>
       <c r="N25" s="51">
         <f t="shared" si="21"/>
-        <v>0.27696453481882738</v>
+        <v>0.27678453391882535</v>
       </c>
       <c r="O25" s="43">
         <f t="shared" si="12"/>
-        <v>1084553.197771759</v>
+        <v>1084823.1991217621</v>
       </c>
       <c r="P25" s="45">
         <f t="shared" si="13"/>
-        <v>415446.80222824099</v>
+        <v>415176.80087823793</v>
       </c>
       <c r="Y25" s="64">
         <f t="shared" si="22"/>
-        <v>296354979.4427886</v>
+        <v>296015823.96552992</v>
       </c>
       <c r="AC25">
         <v>-183232543.96318501</v>
       </c>
       <c r="AF25" s="64">
         <f t="shared" si="16"/>
-        <v>86782192.674404383</v>
+        <v>86686255.531868875</v>
       </c>
       <c r="AL25" s="64">
         <f t="shared" si="17"/>
-        <v>10409225.499495855</v>
+        <v>10400409.727604901</v>
       </c>
       <c r="AR25" s="64">
         <f t="shared" si="18"/>
-        <v>15865114.229687735</v>
+        <v>15847645.195009496</v>
       </c>
       <c r="AX25" s="64">
         <f t="shared" si="19"/>
-        <v>85387868.965806246</v>
+        <v>85295024.524293244</v>
       </c>
       <c r="AY25" s="48">
         <f t="shared" si="20"/>
-        <v>1191.0113452810906</v>
+        <v>1190.4509816783918</v>
       </c>
       <c r="AZ25" s="14">
         <f t="shared" si="14"/>
-        <v>494799380.81218284</v>
+        <v>494245158.94430643</v>
       </c>
       <c r="BA25" s="65">
         <f t="shared" si="15"/>
-        <v>-323125.29062196519</v>
+        <v>-322915.28957196278</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B26" s="60">
         <f t="shared" si="1"/>
-        <v>280975.70379918179</v>
+        <v>280793.09601658018</v>
       </c>
       <c r="C26" s="53">
         <f t="shared" si="2"/>
-        <v>0.24975867874161567</v>
+        <v>0.24959635908943995</v>
       </c>
       <c r="D26" s="55">
         <f t="shared" si="3"/>
-        <v>84292.711139754538</v>
+        <v>84237.928804974043</v>
       </c>
       <c r="E26" s="53">
         <f t="shared" si="4"/>
-        <v>0.1498552072449694</v>
+        <v>0.14975781545366396</v>
       </c>
       <c r="F26" s="55">
         <f t="shared" si="5"/>
-        <v>14048.78518995909</v>
+        <v>14039.654800829008</v>
       </c>
       <c r="G26" s="53">
         <f t="shared" si="6"/>
-        <v>6.2439669685403917E-2</v>
+        <v>6.2399089772359986E-2</v>
       </c>
       <c r="H26" s="55">
         <f t="shared" si="7"/>
-        <v>15453.663708954999</v>
+        <v>15443.620280911911</v>
       </c>
       <c r="I26" s="53">
         <f t="shared" si="8"/>
-        <v>0.13736727330788862</v>
+        <v>0.13727799749919198</v>
       </c>
       <c r="J26" s="55">
         <f t="shared" si="9"/>
-        <v>89912.225215738174</v>
+        <v>89853.790725305662</v>
       </c>
       <c r="K26" s="53">
         <f t="shared" si="10"/>
-        <v>0.39961388598658509</v>
+        <v>0.39935417454310396</v>
       </c>
       <c r="L26" s="54">
         <f t="shared" si="11"/>
-        <v>484683.08905358857</v>
+        <v>484368.0906286008</v>
       </c>
       <c r="M26" s="55"/>
       <c r="N26" s="51">
         <f t="shared" si="21"/>
-        <v>0.32312529062196527</v>
+        <v>0.32291528957196292</v>
       </c>
       <c r="O26" s="43">
         <f t="shared" si="12"/>
-        <v>1015312.0640670521</v>
+        <v>1015627.0656420556</v>
       </c>
       <c r="P26" s="45">
         <f t="shared" si="13"/>
-        <v>484687.9359329479</v>
+        <v>484372.93435794441</v>
       </c>
       <c r="Y26" s="64">
         <f t="shared" si="22"/>
-        <v>394218306.35843885</v>
+        <v>393719200.26706111</v>
       </c>
       <c r="AF26" s="64">
         <f t="shared" si="16"/>
-        <v>114119261.35946536</v>
+        <v>113981570.28413814</v>
       </c>
       <c r="AL26" s="64">
         <f t="shared" si="17"/>
-        <v>12780762.513972955</v>
+        <v>12769456.320098592</v>
       </c>
       <c r="AR26" s="64">
         <f t="shared" si="18"/>
-        <v>20835990.230730474</v>
+        <v>20810987.255893812</v>
       </c>
       <c r="AX26" s="64">
         <f t="shared" si="19"/>
-        <v>112083135.9865393</v>
+        <v>111947219.78011999</v>
       </c>
       <c r="AY26" s="48">
         <f t="shared" si="20"/>
-        <v>1349.4058303406521</v>
+        <v>1348.6131319922406</v>
       </c>
       <c r="AZ26" s="14">
         <f t="shared" si="14"/>
-        <v>654037456.44914699</v>
+        <v>653228433.90731168</v>
       </c>
       <c r="BA26" s="65">
         <f t="shared" si="15"/>
-        <v>-392366.4243266721</v>
+        <v>-392111.42305166926</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B27" s="60">
         <f t="shared" si="1"/>
-        <v>321115.09005620779</v>
+        <v>320906.39544752025</v>
       </c>
       <c r="C27" s="53">
         <f t="shared" si="2"/>
-        <v>0.28543848999041793</v>
+        <v>0.28525298181650283</v>
       </c>
       <c r="D27" s="55">
         <f t="shared" si="3"/>
-        <v>96334.527016862325</v>
+        <v>96271.918634256072</v>
       </c>
       <c r="E27" s="53">
         <f t="shared" si="4"/>
-        <v>0.17126309399425074</v>
+        <v>0.1711517890899017</v>
       </c>
       <c r="F27" s="55">
         <f t="shared" si="5"/>
-        <v>16055.754502810389</v>
+        <v>16045.319772376011</v>
       </c>
       <c r="G27" s="53">
         <f t="shared" si="6"/>
-        <v>7.1359622497604483E-2</v>
+        <v>7.1313245454125707E-2</v>
       </c>
       <c r="H27" s="55">
         <f t="shared" si="7"/>
-        <v>17661.32995309143</v>
+        <v>17649.851749613612</v>
       </c>
       <c r="I27" s="53">
         <f t="shared" si="8"/>
-        <v>0.15699116949472988</v>
+        <v>0.15688913999907655</v>
       </c>
       <c r="J27" s="55">
         <f t="shared" si="9"/>
-        <v>102756.82881798649</v>
+        <v>102690.04654320648</v>
       </c>
       <c r="K27" s="53">
         <f t="shared" si="10"/>
-        <v>0.4567015839846687</v>
+        <v>0.45640477090640452</v>
       </c>
       <c r="L27" s="54">
         <f t="shared" si="11"/>
-        <v>553923.53034695843</v>
+        <v>553563.53214697237</v>
       </c>
       <c r="M27" s="55"/>
       <c r="N27" s="51">
         <f t="shared" si="21"/>
-        <v>0.36928604642510315</v>
+        <v>0.36904604522510048</v>
       </c>
       <c r="O27" s="43">
         <f t="shared" si="12"/>
-        <v>946070.9303623453</v>
+        <v>946430.93216234923</v>
       </c>
       <c r="P27" s="45">
         <f t="shared" si="13"/>
-        <v>553929.0696376547</v>
+        <v>553569.06783765077</v>
       </c>
       <c r="Y27" s="64">
         <f t="shared" si="22"/>
-        <v>518391202.33106256</v>
+        <v>517663515.23055243</v>
       </c>
       <c r="AF27" s="64">
         <f t="shared" si="16"/>
-        <v>147843057.38062</v>
+        <v>147648447.96805242</v>
       </c>
       <c r="AL27" s="64">
         <f t="shared" si="17"/>
-        <v>15389031.889010409</v>
+        <v>15374814.80523912</v>
       </c>
       <c r="AR27" s="64">
         <f t="shared" si="18"/>
-        <v>26949509.925876886</v>
+        <v>26914288.915903799</v>
       </c>
       <c r="AX27" s="64">
         <f t="shared" si="19"/>
-        <v>145969382.14709473</v>
+        <v>145770001.96998942</v>
       </c>
       <c r="AY27" s="48">
         <f t="shared" si="20"/>
-        <v>1542.7001456216549</v>
+        <v>1541.5878258660928</v>
       </c>
       <c r="AZ27" s="14">
         <f t="shared" si="14"/>
-        <v>854542183.67366457</v>
+        <v>853371068.88973713</v>
       </c>
       <c r="BA27" s="65">
         <f t="shared" si="15"/>
-        <v>-461607.5580313789</v>
+        <v>-461307.55653137562</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B28" s="60">
         <f t="shared" si="1"/>
-        <v>361254.47631323372</v>
+        <v>361019.69487846026</v>
       </c>
       <c r="C28" s="53">
         <f t="shared" si="2"/>
-        <v>0.32111830123922014</v>
+        <v>0.32090960454356565</v>
       </c>
       <c r="D28" s="55">
         <f t="shared" si="3"/>
-        <v>108376.34289397011</v>
+        <v>108305.90846353807</v>
       </c>
       <c r="E28" s="53">
         <f t="shared" si="4"/>
-        <v>0.19267098074353209</v>
+        <v>0.19254576272613938</v>
       </c>
       <c r="F28" s="55">
         <f t="shared" si="5"/>
-        <v>18062.723815661684</v>
+        <v>18050.984743923011</v>
       </c>
       <c r="G28" s="53">
         <f t="shared" si="6"/>
-        <v>8.0279575309805035E-2</v>
+        <v>8.0227401135891413E-2</v>
       </c>
       <c r="H28" s="55">
         <f t="shared" si="7"/>
-        <v>19868.996197227858</v>
+        <v>19856.083218315314</v>
       </c>
       <c r="I28" s="53">
         <f t="shared" si="8"/>
-        <v>0.17661506568157109</v>
+        <v>0.17650028249896113</v>
       </c>
       <c r="J28" s="55">
         <f t="shared" si="9"/>
-        <v>115601.43242023478</v>
+        <v>115526.30236110729</v>
       </c>
       <c r="K28" s="53">
         <f t="shared" si="10"/>
-        <v>0.5137892819827522</v>
+        <v>0.51345536726970509</v>
       </c>
       <c r="L28" s="54">
         <f t="shared" si="11"/>
-        <v>623163.97164032818</v>
+        <v>622758.97366534395</v>
       </c>
       <c r="M28" s="55"/>
       <c r="N28" s="51">
         <f t="shared" si="21"/>
-        <v>0.41544680222824104</v>
+        <v>0.41517680087823805</v>
       </c>
       <c r="O28" s="43">
         <f t="shared" si="12"/>
-        <v>876829.79665763839</v>
+        <v>877234.79868264287</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="13"/>
-        <v>623170.20334236161</v>
+        <v>622765.20131735713</v>
       </c>
       <c r="Y28" s="64">
         <f t="shared" si="22"/>
-        <v>677836488.49028897</v>
+        <v>676779006.66675019</v>
       </c>
       <c r="AF28" s="64">
         <f t="shared" si="16"/>
-        <v>189672214.07816708</v>
+        <v>189399946.21605444</v>
       </c>
       <c r="AL28" s="64">
         <f t="shared" si="17"/>
-        <v>18260288.239795543</v>
+        <v>18242673.930189677</v>
       </c>
       <c r="AR28" s="64">
         <f t="shared" si="18"/>
-        <v>34504667.58384528</v>
+        <v>34455586.870899804</v>
       </c>
       <c r="AX28" s="64">
         <f t="shared" si="19"/>
-        <v>190084154.17892358</v>
+        <v>189788153.24580124</v>
       </c>
       <c r="AY28" s="48">
         <f t="shared" si="20"/>
-        <v>1781.7979075652327</v>
+        <v>1780.2390177287334</v>
       </c>
       <c r="AZ28" s="14">
         <f t="shared" si="14"/>
-        <v>1110357812.5710204</v>
+        <v>1108665366.9296954</v>
       </c>
       <c r="BA28" s="65">
         <f t="shared" si="15"/>
-        <v>-530848.69173608581</v>
+        <v>-530503.69001108198</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B29" s="60">
         <f t="shared" si="1"/>
-        <v>401393.86257025966</v>
+        <v>401132.99430940032</v>
       </c>
       <c r="C29" s="53">
         <f t="shared" si="2"/>
-        <v>0.35679811248802235</v>
+        <v>0.35656622727062853</v>
       </c>
       <c r="D29" s="55">
         <f t="shared" si="3"/>
-        <v>120418.1587710779</v>
+        <v>120339.89829282009</v>
       </c>
       <c r="E29" s="53">
         <f t="shared" si="4"/>
-        <v>0.21407886749281341</v>
+        <v>0.21393973636237712</v>
       </c>
       <c r="F29" s="55">
         <f t="shared" si="5"/>
-        <v>20069.693128512983</v>
+        <v>20056.649715470016</v>
       </c>
       <c r="G29" s="53">
         <f t="shared" si="6"/>
-        <v>8.9199528122005586E-2</v>
+        <v>8.9141556817657133E-2</v>
       </c>
       <c r="H29" s="55">
         <f t="shared" si="7"/>
-        <v>22076.662441364282</v>
+        <v>22062.314687017017</v>
       </c>
       <c r="I29" s="53">
         <f t="shared" si="8"/>
-        <v>0.1962389618684123</v>
+        <v>0.19611142499884571</v>
       </c>
       <c r="J29" s="55">
         <f t="shared" si="9"/>
-        <v>128446.03602248309</v>
+        <v>128362.55817900809</v>
       </c>
       <c r="K29" s="53">
         <f t="shared" si="10"/>
-        <v>0.57087697998083575</v>
+        <v>0.57050596363300565</v>
       </c>
       <c r="L29" s="54">
         <f t="shared" si="11"/>
-        <v>692404.41293369792</v>
+        <v>691954.41518371552</v>
       </c>
       <c r="M29" s="55"/>
       <c r="N29" s="51">
         <f t="shared" si="21"/>
-        <v>0.46160755803137893</v>
+        <v>0.46130755653137562</v>
       </c>
       <c r="O29" s="43">
         <f t="shared" si="12"/>
-        <v>807588.6629529316</v>
+        <v>808038.66520293662</v>
       </c>
       <c r="P29" s="45">
         <f t="shared" si="13"/>
-        <v>692411.3370470684</v>
+        <v>691961.33479706338</v>
       </c>
       <c r="Y29" s="64">
         <f t="shared" si="22"/>
-        <v>885290284.61827505</v>
+        <v>883751397.62873793</v>
       </c>
       <c r="AF29" s="64">
         <f t="shared" si="16"/>
-        <v>241852348.34424734</v>
+        <v>241473925.35487264</v>
       </c>
       <c r="AL29" s="64">
         <f t="shared" si="17"/>
-        <v>21423994.763438717</v>
+        <v>21402420.601556301</v>
       </c>
       <c r="AR29" s="64">
         <f t="shared" si="18"/>
-        <v>43888700.788824603</v>
+        <v>43820801.319632061</v>
       </c>
       <c r="AX29" s="64">
         <f t="shared" si="19"/>
-        <v>249339678.25802907</v>
+        <v>248890352.9232299</v>
       </c>
       <c r="AY29" s="48">
         <f t="shared" si="20"/>
-        <v>2082.2914626336606</v>
+        <v>2080.0961298807811</v>
       </c>
       <c r="AZ29" s="14">
         <f t="shared" si="14"/>
-        <v>1441795006.7728148</v>
+        <v>1439338897.8280289</v>
       </c>
       <c r="BA29" s="65">
         <f t="shared" si="15"/>
-        <v>-600089.8254407926</v>
+        <v>-599699.82349078823</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B30" s="60">
         <f t="shared" si="1"/>
-        <v>441533.24882728566</v>
+        <v>441246.29374034028</v>
       </c>
       <c r="C30" s="53">
         <f t="shared" si="2"/>
-        <v>0.39247792373682461</v>
+        <v>0.39222284999769136</v>
       </c>
       <c r="D30" s="55">
         <f t="shared" si="3"/>
-        <v>132459.97464818569</v>
+        <v>132373.88812210207</v>
       </c>
       <c r="E30" s="53">
         <f t="shared" si="4"/>
-        <v>0.23548675424209475</v>
+        <v>0.2353337099986148</v>
       </c>
       <c r="F30" s="55">
         <f t="shared" si="5"/>
-        <v>22076.662441364282</v>
+        <v>22062.314687017017</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="6"/>
-        <v>9.8119480934206152E-2</v>
+        <v>9.805571249942284E-2</v>
       </c>
       <c r="H30" s="55">
         <f t="shared" si="7"/>
-        <v>24284.32868550071</v>
+        <v>24268.546155718719</v>
       </c>
       <c r="I30" s="53">
         <f t="shared" si="8"/>
-        <v>0.21586285805525354</v>
+        <v>0.21572256749873026</v>
       </c>
       <c r="J30" s="55">
         <f t="shared" si="9"/>
-        <v>141290.63962473141</v>
+        <v>141198.8139969089</v>
       </c>
       <c r="K30" s="53">
         <f t="shared" si="10"/>
-        <v>0.62796467797891942</v>
+        <v>0.62755655999630622</v>
       </c>
       <c r="L30" s="54">
         <f t="shared" si="11"/>
-        <v>761644.85422706767</v>
+        <v>761149.85670208698</v>
       </c>
       <c r="M30" s="55"/>
       <c r="N30" s="51">
         <f t="shared" si="21"/>
-        <v>0.50776831383451682</v>
+        <v>0.50743831218451318</v>
       </c>
       <c r="O30" s="43">
         <f t="shared" si="12"/>
-        <v>738347.5292482248</v>
+        <v>738842.53172323026</v>
       </c>
       <c r="P30" s="45">
         <f t="shared" si="13"/>
-        <v>761652.4707517752</v>
+        <v>761157.46827676974</v>
       </c>
       <c r="Y30" s="64">
         <f t="shared" si="22"/>
-        <v>1159191716.140835</v>
+        <v>1156940271.6101468</v>
       </c>
       <c r="AF30" s="64">
         <f t="shared" si="16"/>
-        <v>307338617.5501343</v>
+        <v>306814681.94322813</v>
       </c>
       <c r="AL30" s="64">
         <f t="shared" si="17"/>
-        <v>24913252.377725743</v>
+        <v>24887067.309836023</v>
       </c>
       <c r="AR30" s="64">
         <f t="shared" si="18"/>
-        <v>55606245.640437163</v>
+        <v>55512746.12551827</v>
       </c>
       <c r="AX30" s="64">
         <f t="shared" si="19"/>
-        <v>332160071.00811052</v>
+        <v>331454043.43875968</v>
       </c>
       <c r="AY30" s="48">
         <f t="shared" si="20"/>
-        <v>2467.2923294436205</v>
+        <v>2464.1657825925381</v>
       </c>
       <c r="AZ30" s="14">
         <f t="shared" si="14"/>
-        <v>1879209902.717243</v>
+        <v>1875608810.4274888</v>
       </c>
       <c r="BA30" s="65">
         <f t="shared" si="15"/>
-        <v>-669330.95914549939</v>
+        <v>-668895.95697049459</v>
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B31" s="60">
         <f t="shared" si="1"/>
-        <v>481672.63508431165</v>
+        <v>481359.59317128028</v>
       </c>
       <c r="C31" s="53">
         <f t="shared" si="2"/>
-        <v>0.42815773498562687</v>
+        <v>0.42787947272475418</v>
       </c>
       <c r="D31" s="55">
         <f t="shared" si="3"/>
-        <v>144501.79052529347</v>
+        <v>144407.87795138409</v>
       </c>
       <c r="E31" s="53">
         <f t="shared" si="4"/>
-        <v>0.2568946409913761</v>
+        <v>0.25672768363485249</v>
       </c>
       <c r="F31" s="55">
         <f t="shared" si="5"/>
-        <v>24083.631754215581</v>
+        <v>24067.979658564014</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="6"/>
-        <v>0.10703943374640672</v>
+        <v>0.10696986818118855</v>
       </c>
       <c r="H31" s="55">
         <f t="shared" si="7"/>
-        <v>26491.994929637145</v>
+        <v>26474.777624420421</v>
       </c>
       <c r="I31" s="53">
         <f t="shared" si="8"/>
-        <v>0.23548675424209481</v>
+        <v>0.23533370999861483</v>
       </c>
       <c r="J31" s="55">
         <f t="shared" si="9"/>
-        <v>154135.24322697974</v>
+        <v>154035.06981480971</v>
       </c>
       <c r="K31" s="53">
         <f t="shared" si="10"/>
-        <v>0.68505237597700308</v>
+        <v>0.68460715635960678</v>
       </c>
       <c r="L31" s="54">
         <f t="shared" si="11"/>
-        <v>830885.29552043765</v>
+        <v>830345.29822045844</v>
       </c>
       <c r="M31" s="55"/>
       <c r="N31" s="51">
         <f t="shared" si="21"/>
-        <v>0.55392906963765476</v>
+        <v>0.5535690678376507</v>
       </c>
       <c r="O31" s="43">
         <f t="shared" si="12"/>
-        <v>669106.39554351789</v>
+        <v>669646.3982435239</v>
       </c>
       <c r="P31" s="45">
         <f t="shared" si="13"/>
-        <v>830893.60445648211</v>
+        <v>830353.6017564761</v>
       </c>
       <c r="Y31" s="64">
         <f t="shared" si="22"/>
-        <v>1526797325.2315304</v>
+        <v>1523473742.7842546</v>
       </c>
       <c r="AF31" s="64">
         <f t="shared" si="16"/>
-        <v>390049230.8617968</v>
+        <v>389325110.62179905</v>
       </c>
       <c r="AL31" s="64">
         <f t="shared" si="17"/>
-        <v>28765291.309098087</v>
+        <v>28733741.706567012</v>
       </c>
       <c r="AR31" s="64">
         <f t="shared" si="18"/>
-        <v>70319209.454643637</v>
+        <v>70190793.295484543</v>
       </c>
       <c r="AX31" s="64">
         <f t="shared" si="19"/>
-        <v>454124486.02848387</v>
+        <v>452956861.64701688</v>
       </c>
       <c r="AY31" s="48">
         <f t="shared" si="20"/>
-        <v>2972.784818588746</v>
+        <v>2968.244574684938</v>
       </c>
       <c r="AZ31" s="14">
         <f t="shared" si="14"/>
-        <v>2470055542.8855529</v>
+        <v>2464680250.0551219</v>
       </c>
       <c r="BA31" s="65">
         <f t="shared" si="15"/>
-        <v>-738572.0928502063</v>
+        <v>-738092.09045020095</v>
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B32" s="60">
         <f t="shared" si="1"/>
-        <v>521812.02134133765</v>
+        <v>521472.89260222029</v>
       </c>
       <c r="C32" s="53">
         <f t="shared" si="2"/>
-        <v>0.46383754623442913</v>
+        <v>0.46353609545181701</v>
       </c>
       <c r="D32" s="55">
         <f t="shared" si="3"/>
-        <v>156543.60640240126</v>
+        <v>156441.86778066607</v>
       </c>
       <c r="E32" s="53">
         <f t="shared" si="4"/>
-        <v>0.27830252774065745</v>
+        <v>0.27812165727109017</v>
       </c>
       <c r="F32" s="55">
         <f t="shared" si="5"/>
-        <v>26090.60106706688</v>
+        <v>26073.644630111015</v>
       </c>
       <c r="G32" s="53">
         <f t="shared" si="6"/>
-        <v>0.11595938655860728</v>
+        <v>0.11588402386295425</v>
       </c>
       <c r="H32" s="55">
         <f t="shared" si="7"/>
-        <v>28699.661173773573</v>
+        <v>28681.009093122117</v>
       </c>
       <c r="I32" s="53">
         <f t="shared" si="8"/>
-        <v>0.25511065042893605</v>
+        <v>0.25494485249849935</v>
       </c>
       <c r="J32" s="55">
         <f t="shared" si="9"/>
-        <v>166979.84682922804</v>
+        <v>166871.3256327105</v>
       </c>
       <c r="K32" s="53">
         <f t="shared" si="10"/>
-        <v>0.74214007397508663</v>
+        <v>0.74165775272290724</v>
       </c>
       <c r="L32" s="54">
         <f t="shared" si="11"/>
-        <v>900125.73681380739</v>
+        <v>899540.73973883002</v>
       </c>
       <c r="M32" s="55"/>
       <c r="N32" s="51">
         <f t="shared" si="21"/>
-        <v>0.6000898254407927</v>
+        <v>0.59969982349078821</v>
       </c>
       <c r="O32" s="43">
         <f t="shared" si="12"/>
-        <v>599865.26183881098</v>
+        <v>600450.26476381766</v>
       </c>
       <c r="P32" s="45">
         <f t="shared" si="13"/>
-        <v>900134.73816118902</v>
+        <v>899549.73523618234</v>
       </c>
       <c r="Y32" s="64">
         <f t="shared" si="22"/>
-        <v>2029346360.3260729</v>
+        <v>2024378312.3982561</v>
       </c>
       <c r="AF32" s="64">
         <f t="shared" si="16"/>
-        <v>495220681.98939067</v>
+        <v>494219946.55014473</v>
       </c>
       <c r="AL32" s="64">
         <f t="shared" si="17"/>
-        <v>33022034.968286827</v>
+        <v>32984248.118405528</v>
       </c>
       <c r="AR32" s="64">
         <f t="shared" si="18"/>
-        <v>88901722.091193795</v>
+        <v>88725523.067535028</v>
       </c>
       <c r="AX32" s="64">
         <f t="shared" si="19"/>
@@ -3881,90 +3875,90 @@
       </c>
       <c r="AY32" s="48">
         <f t="shared" si="20"/>
-        <v>3490.9969843978656</v>
+        <v>3486.3940630192396</v>
       </c>
       <c r="AZ32" s="14">
         <f t="shared" si="14"/>
-        <v>3142351944.6778345</v>
+        <v>3136169175.4372315</v>
       </c>
       <c r="BA32" s="65">
         <f t="shared" si="15"/>
-        <v>-807813.22655491321</v>
+        <v>-807288.2239299072</v>
       </c>
     </row>
     <row r="33" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B33" s="60">
         <f t="shared" si="1"/>
-        <v>561951.4075983637</v>
+        <v>561586.19203316025</v>
       </c>
       <c r="C33" s="53">
         <f t="shared" si="2"/>
-        <v>0.49951735748323145</v>
+        <v>0.49919271817887978</v>
       </c>
       <c r="D33" s="55">
         <f t="shared" si="3"/>
-        <v>168585.4222795091</v>
+        <v>168475.85760994806</v>
       </c>
       <c r="E33" s="53">
         <f t="shared" si="4"/>
-        <v>0.29971041448993885</v>
+        <v>0.29951563090732786</v>
       </c>
       <c r="F33" s="55">
         <f t="shared" si="5"/>
-        <v>28097.570379918187</v>
+        <v>28079.309601658013</v>
       </c>
       <c r="G33" s="53">
         <f t="shared" si="6"/>
-        <v>0.12487933937080786</v>
+        <v>0.12479817954471994</v>
       </c>
       <c r="H33" s="55">
         <f t="shared" si="7"/>
-        <v>30907.327417910008</v>
+        <v>30887.240561823815</v>
       </c>
       <c r="I33" s="53">
         <f t="shared" si="8"/>
-        <v>0.27473454661577734</v>
+        <v>0.2745559949983839</v>
       </c>
       <c r="J33" s="55">
         <f t="shared" si="9"/>
-        <v>179824.45043147641</v>
+        <v>179707.58145061129</v>
       </c>
       <c r="K33" s="53">
         <f t="shared" si="10"/>
-        <v>0.79922777197317041</v>
+        <v>0.79870834908620769</v>
       </c>
       <c r="L33" s="54">
         <f t="shared" si="11"/>
-        <v>969366.17810717737</v>
+        <v>968736.18125720148</v>
       </c>
       <c r="M33" s="55"/>
       <c r="N33" s="51">
         <f t="shared" si="21"/>
-        <v>0.64625058124393064</v>
+        <v>0.64583057914392572</v>
       </c>
       <c r="O33" s="43">
         <f t="shared" si="12"/>
-        <v>530624.12813410407</v>
+        <v>531254.13128411141</v>
       </c>
       <c r="P33" s="45">
         <f t="shared" si="13"/>
-        <v>969375.87186589593</v>
+        <v>968745.86871588859</v>
       </c>
       <c r="Y33" s="64">
         <f t="shared" si="22"/>
-        <v>2730893557.7956009</v>
+        <v>2723345875.4905276</v>
       </c>
       <c r="AF33" s="64">
         <f t="shared" si="16"/>
-        <v>629910285.51667023</v>
+        <v>628525337.4805541</v>
       </c>
       <c r="AL33" s="64">
         <f t="shared" si="17"/>
-        <v>37730747.622755557</v>
+        <v>37685712.442599781</v>
       </c>
       <c r="AR33" s="64">
         <f t="shared" si="18"/>
-        <v>112516483.09529084</v>
+        <v>112274631.67894769</v>
       </c>
       <c r="AX33" s="64">
         <f t="shared" si="19"/>
@@ -3972,90 +3966,90 @@
       </c>
       <c r="AY33" s="48">
         <f t="shared" si="20"/>
-        <v>4133.5176274050564</v>
+        <v>4126.6887632796597</v>
       </c>
       <c r="AZ33" s="14">
         <f t="shared" si="14"/>
-        <v>4006912219.3332076</v>
+        <v>3997692702.3955197</v>
       </c>
       <c r="BA33" s="65">
         <f t="shared" si="15"/>
-        <v>-877054.36025962012</v>
+        <v>-876484.35740961344</v>
       </c>
     </row>
     <row r="34" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B34" s="60">
         <f t="shared" si="1"/>
-        <v>602090.7938553897</v>
+        <v>601699.4914641002</v>
       </c>
       <c r="C34" s="53">
         <f t="shared" si="2"/>
-        <v>0.53519716873203371</v>
+        <v>0.53484934090594261</v>
       </c>
       <c r="D34" s="55">
         <f t="shared" si="3"/>
-        <v>180627.23815661689</v>
+        <v>180509.84743923007</v>
       </c>
       <c r="E34" s="53">
         <f t="shared" si="4"/>
-        <v>0.32111830123922019</v>
+        <v>0.32090960454356554</v>
       </c>
       <c r="F34" s="55">
         <f t="shared" si="5"/>
-        <v>30104.539692769486</v>
+        <v>30084.974573205011</v>
       </c>
       <c r="G34" s="53">
         <f t="shared" si="6"/>
-        <v>0.13379929218300843</v>
+        <v>0.13371233522648565</v>
       </c>
       <c r="H34" s="55">
         <f t="shared" si="7"/>
-        <v>33114.993662046436</v>
+        <v>33093.472030525518</v>
       </c>
       <c r="I34" s="53">
         <f t="shared" si="8"/>
-        <v>0.29435844280261858</v>
+        <v>0.29416713749826845</v>
       </c>
       <c r="J34" s="55">
         <f t="shared" si="9"/>
-        <v>192669.05403372471</v>
+        <v>192543.83726851208</v>
       </c>
       <c r="K34" s="53">
         <f t="shared" si="10"/>
-        <v>0.85631546997125396</v>
+        <v>0.85575894544950826</v>
       </c>
       <c r="L34" s="54">
         <f t="shared" si="11"/>
-        <v>1038606.6194005472</v>
+        <v>1037931.6227755729</v>
       </c>
       <c r="M34" s="55"/>
       <c r="N34" s="51">
         <f t="shared" si="21"/>
-        <v>0.69241133704706859</v>
+        <v>0.69196133479706323</v>
       </c>
       <c r="O34" s="43">
         <f t="shared" si="12"/>
-        <v>461382.99442939716</v>
+        <v>462057.99780440517</v>
       </c>
       <c r="P34" s="45">
         <f t="shared" si="13"/>
-        <v>1038617.0055706028</v>
+        <v>1037942.0021955948</v>
       </c>
       <c r="Y34" s="64">
         <f t="shared" si="22"/>
-        <v>3733945040.63658</v>
+        <v>3722242773.799583</v>
       </c>
       <c r="AF34" s="64">
         <f t="shared" si="16"/>
-        <v>803714305.95737731</v>
+        <v>801792511.96554291</v>
       </c>
       <c r="AL34" s="64">
         <f t="shared" si="17"/>
-        <v>42944779.350496612</v>
+        <v>42891323.831077576</v>
       </c>
       <c r="AR34" s="64">
         <f t="shared" si="18"/>
-        <v>142721741.5070878</v>
+        <v>142389264.7799747</v>
       </c>
       <c r="AX34" s="64">
         <f t="shared" si="19"/>
@@ -4063,90 +4057,90 @@
       </c>
       <c r="AY34" s="48">
         <f t="shared" si="20"/>
-        <v>5025.1566080223365</v>
+        <v>5014.9266862804025</v>
       </c>
       <c r="AZ34" s="14">
         <f t="shared" si="14"/>
-        <v>5219187012.7544308</v>
+        <v>5205177019.6790686</v>
       </c>
       <c r="BA34" s="65">
         <f t="shared" si="15"/>
-        <v>-946295.49396432703</v>
+        <v>-945680.49088931968</v>
       </c>
     </row>
     <row r="35" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B35" s="60">
         <f t="shared" si="1"/>
-        <v>642230.18011241569</v>
+        <v>641812.79089504026</v>
       </c>
       <c r="C35" s="53">
         <f t="shared" si="2"/>
-        <v>0.57087697998083597</v>
+        <v>0.57050596363300543</v>
       </c>
       <c r="D35" s="55">
         <f t="shared" si="3"/>
-        <v>192669.05403372471</v>
+        <v>192543.83726851206</v>
       </c>
       <c r="E35" s="53">
         <f t="shared" si="4"/>
-        <v>0.3425261879885016</v>
+        <v>0.34230357817980323</v>
       </c>
       <c r="F35" s="55">
         <f t="shared" si="5"/>
-        <v>32111.509005620785</v>
+        <v>32090.639544752012</v>
       </c>
       <c r="G35" s="53">
         <f t="shared" si="6"/>
-        <v>0.14271924499520899</v>
+        <v>0.14262649090825136</v>
       </c>
       <c r="H35" s="55">
         <f t="shared" si="7"/>
-        <v>35322.659906182867</v>
+        <v>35299.703499227217</v>
       </c>
       <c r="I35" s="53">
         <f t="shared" si="8"/>
-        <v>0.31398233898945982</v>
+        <v>0.313778279998153</v>
       </c>
       <c r="J35" s="55">
         <f t="shared" si="9"/>
-        <v>205513.65763597304</v>
+        <v>205380.09308641287</v>
       </c>
       <c r="K35" s="53">
         <f t="shared" si="10"/>
-        <v>0.91340316796933763</v>
+        <v>0.91280954181280871</v>
       </c>
       <c r="L35" s="54">
         <f t="shared" si="11"/>
-        <v>1107847.0606939171</v>
+        <v>1107127.0642939443</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="51">
         <f t="shared" si="21"/>
-        <v>0.73857209285020653</v>
+        <v>0.73809209045020074</v>
       </c>
       <c r="O35" s="43">
         <f t="shared" si="12"/>
-        <v>392141.86072469014</v>
+        <v>392861.86432469892</v>
       </c>
       <c r="P35" s="45">
         <f t="shared" si="13"/>
-        <v>1107858.1392753099</v>
+        <v>1107138.1356753011</v>
       </c>
       <c r="Y35" s="64">
         <f t="shared" si="22"/>
-        <v>5208250930.1744461</v>
+        <v>5189646884.0058384</v>
       </c>
       <c r="AF35" s="64">
         <f t="shared" si="16"/>
-        <v>1029805203.788251</v>
+        <v>1027128237.6923612</v>
       </c>
       <c r="AL35" s="64">
         <f t="shared" si="17"/>
-        <v>48724424.099227197</v>
+        <v>48661188.894624561</v>
       </c>
       <c r="AR35" s="64">
         <f t="shared" si="18"/>
-        <v>181622548.28080764</v>
+        <v>181164310.16661745</v>
       </c>
       <c r="AX35" s="64">
         <f t="shared" si="19"/>
@@ -4154,90 +4148,90 @@
       </c>
       <c r="AY35" s="48">
         <f t="shared" si="20"/>
-        <v>6286.2733288215604</v>
+        <v>6270.668722122653</v>
       </c>
       <c r="AZ35" s="14">
         <f t="shared" si="14"/>
-        <v>6964264251.6456213</v>
+        <v>6942461766.0623312</v>
       </c>
       <c r="BA35" s="65">
         <f t="shared" si="15"/>
-        <v>-1015536.6276690341</v>
+        <v>-1014876.6243690259</v>
       </c>
     </row>
     <row r="36" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B36" s="60">
         <f t="shared" si="1"/>
-        <v>682369.56636944169</v>
+        <v>681926.09032598021</v>
       </c>
       <c r="C36" s="53">
         <f t="shared" si="2"/>
-        <v>0.60655679122963824</v>
+        <v>0.60616258636006826</v>
       </c>
       <c r="D36" s="55">
         <f t="shared" si="3"/>
-        <v>204710.86991083249</v>
+        <v>204577.82709779407</v>
       </c>
       <c r="E36" s="53">
         <f t="shared" si="4"/>
-        <v>0.36393407473778294</v>
+        <v>0.36369755181604096</v>
       </c>
       <c r="F36" s="55">
         <f t="shared" si="5"/>
-        <v>34118.478318472087</v>
+        <v>34096.304516299009</v>
       </c>
       <c r="G36" s="53">
         <f t="shared" si="6"/>
-        <v>0.15163919780740956</v>
+        <v>0.15154064659001706</v>
       </c>
       <c r="H36" s="55">
         <f t="shared" si="7"/>
-        <v>37530.326150319299</v>
+        <v>37505.934967928915</v>
       </c>
       <c r="I36" s="53">
         <f t="shared" si="8"/>
-        <v>0.33360623517630106</v>
+        <v>0.33338942249803755</v>
       </c>
       <c r="J36" s="55">
         <f t="shared" si="9"/>
-        <v>218358.26123822134</v>
+        <v>218216.34890431369</v>
       </c>
       <c r="K36" s="53">
         <f>C36*cutratio_lndscp</f>
-        <v>0.97049086596742118</v>
+        <v>0.96986013817610928</v>
       </c>
       <c r="L36" s="54">
         <f t="shared" si="11"/>
-        <v>1177087.5019872868</v>
+        <v>1176322.5058123157</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="51">
         <f t="shared" si="21"/>
-        <v>0.78473284865334447</v>
+        <v>0.78422284610333826</v>
       </c>
       <c r="O36" s="43">
         <f t="shared" si="12"/>
-        <v>322900.72701998334</v>
+        <v>323665.73084499268</v>
       </c>
       <c r="P36" s="45">
         <f t="shared" si="13"/>
-        <v>1177099.2729800167</v>
+        <v>1176334.2691550073</v>
       </c>
       <c r="Y36" s="64">
         <f t="shared" si="22"/>
-        <v>7446289747.4806499</v>
+        <v>7415790703.0295877</v>
       </c>
       <c r="AF36" s="64">
         <f t="shared" si="16"/>
-        <v>1326446918.1468427</v>
+        <v>1322699653.3105819</v>
       </c>
       <c r="AL36" s="64">
         <f t="shared" si="17"/>
-        <v>55137909.450498149</v>
+        <v>55063316.915649801</v>
       </c>
       <c r="AR36" s="64">
         <f t="shared" si="18"/>
-        <v>232086633.89434981</v>
+        <v>231452836.70505196</v>
       </c>
       <c r="AX36" s="64">
         <f t="shared" si="19"/>
@@ -4245,74 +4239,74 @@
       </c>
       <c r="AY36" s="48">
         <f t="shared" si="20"/>
-        <v>8118.151419209491</v>
+        <v>8093.715799461449</v>
       </c>
       <c r="AZ36" s="14">
         <f t="shared" si="14"/>
-        <v>9555822354.2752323</v>
+        <v>9520867655.2637615</v>
       </c>
       <c r="BA36" s="65">
         <f t="shared" si="15"/>
-        <v>-1084777.7613737409</v>
+        <v>-1084072.7578487322</v>
       </c>
     </row>
     <row r="37" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B37" s="60">
         <f t="shared" si="1"/>
-        <v>722508.95262646768</v>
+        <v>722039.38975692028</v>
       </c>
       <c r="C37" s="53">
         <f t="shared" si="2"/>
-        <v>0.6422366024784405</v>
+        <v>0.64181920908713108</v>
       </c>
       <c r="D37" s="55">
         <f t="shared" si="3"/>
-        <v>216752.68578794031</v>
+        <v>216611.81692707608</v>
       </c>
       <c r="E37" s="53">
         <f t="shared" si="4"/>
-        <v>0.38534196148706429</v>
+        <v>0.38509152545227865</v>
       </c>
       <c r="F37" s="55">
         <f t="shared" si="5"/>
-        <v>36125.447631323383</v>
+        <v>36101.969487846014</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="6"/>
-        <v>0.16055915061961012</v>
+        <v>0.16045480227178277</v>
       </c>
       <c r="H37" s="55">
         <f t="shared" si="7"/>
-        <v>39737.992394455723</v>
+        <v>39712.166436630621</v>
       </c>
       <c r="I37" s="53">
         <f t="shared" si="8"/>
-        <v>0.3532301313631423</v>
+        <v>0.35300056499792215</v>
       </c>
       <c r="J37" s="55">
         <f t="shared" si="9"/>
-        <v>231202.86484046967</v>
+        <v>231052.60472221448</v>
       </c>
       <c r="K37" s="53">
         <f t="shared" si="10"/>
-        <v>1.0275785639655048</v>
+        <v>1.0269107345394097</v>
       </c>
       <c r="L37" s="54">
         <f>J37+H37+F37+D37+B37</f>
-        <v>1246327.9432806568</v>
+        <v>1245517.9473306874</v>
       </c>
       <c r="M37" s="55"/>
       <c r="N37" s="51">
         <f t="shared" si="21"/>
-        <v>0.83089360445648242</v>
+        <v>0.83035360175647577</v>
       </c>
       <c r="O37" s="43">
         <f t="shared" si="12"/>
-        <v>253659.59331527632</v>
+        <v>254469.59736528643</v>
       </c>
       <c r="P37" s="45">
         <f t="shared" si="13"/>
-        <v>1246340.4066847237</v>
+        <v>1245530.4026347136</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>73</v>
@@ -4337,7 +4331,7 @@
       </c>
       <c r="Y37" s="64">
         <f t="shared" si="22"/>
-        <v>10976000280.555107</v>
+        <v>10924077017.13736</v>
       </c>
       <c r="Z37" s="11" t="s">
         <v>73</v>
@@ -4354,12 +4348,12 @@
       <c r="AD37" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AE37" s="145" t="s">
+      <c r="AE37" s="143" t="s">
         <v>76</v>
       </c>
       <c r="AF37" s="64">
         <f t="shared" si="16"/>
-        <v>1719235415.4041028</v>
+        <v>1713958521.8476808</v>
       </c>
       <c r="AG37" s="11" t="s">
         <v>73</v>
@@ -4378,7 +4372,7 @@
       </c>
       <c r="AL37" s="64">
         <f t="shared" si="17"/>
-        <v>62262539.986596614</v>
+        <v>62174757.834079713</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>73</v>
@@ -4397,7 +4391,7 @@
       </c>
       <c r="AR37" s="64">
         <f t="shared" si="18"/>
-        <v>298055615.11880803</v>
+        <v>297175122.05525213</v>
       </c>
       <c r="AS37" s="11" t="s">
         <v>73</v>
@@ -4420,84 +4414,84 @@
       </c>
       <c r="AY37" s="48">
         <f t="shared" si="20"/>
-        <v>10873.018864597454</v>
+        <v>10833.387930167843</v>
       </c>
       <c r="AZ37" s="14">
         <f t="shared" si="14"/>
-        <v>13551414996.367506</v>
+        <v>13493246564.177263</v>
       </c>
       <c r="BA37" s="65">
         <f t="shared" si="15"/>
-        <v>-1154018.8950784479</v>
+        <v>-1153268.8913284384</v>
       </c>
     </row>
     <row r="38" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B38" s="131">
+      <c r="B38" s="129">
         <f>shortage_dist_sf*base_use_sf</f>
-        <v>802787.72514051944</v>
-      </c>
-      <c r="C38" s="130">
+        <v>802265.98861880065</v>
+      </c>
+      <c r="C38" s="150">
         <f>Total_adjusted_shortage/(size_sf+cutratio_mf*size_mf+cutratio_ind*size_ind+cutratio_com*size_com+cutratio_lndscp*size_lndscp)</f>
-        <v>0.7135962249760448</v>
-      </c>
-      <c r="D38" s="144">
+        <v>0.71313245454125707</v>
+      </c>
+      <c r="D38" s="142">
         <f>shortage_dist_mf*base_use_mf</f>
-        <v>240836.31754215583</v>
+        <v>240679.79658564017</v>
       </c>
       <c r="E38" s="99">
         <f>shortage_dist_sf*cutratio_mf</f>
-        <v>0.42815773498562687</v>
+        <v>0.42787947272475424</v>
       </c>
       <c r="F38" s="100">
         <f>shortage_dist_ind*base_use_ind</f>
-        <v>40139.386257025973</v>
+        <v>40113.299430940031</v>
       </c>
       <c r="G38" s="99">
         <f>shortage_dist_sf*cutratio_ind</f>
-        <v>0.1783990562440112</v>
+        <v>0.17828311363531427</v>
       </c>
       <c r="H38" s="100">
         <f>shortage_dist_comm*base_use_comm</f>
-        <v>44153.324882728572</v>
+        <v>44124.629374034033</v>
       </c>
       <c r="I38" s="99">
         <f>shortage_dist_sf*cutratio_com</f>
-        <v>0.39247792373682466</v>
+        <v>0.39222284999769141</v>
       </c>
       <c r="J38" s="100">
         <f>shortage_dist_lndscp*base_use_lndscp</f>
-        <v>256892.07204496622</v>
+        <v>256725.11635801618</v>
       </c>
       <c r="K38" s="99">
         <f>shortage_dist_sf*cutratio_lndscp</f>
-        <v>1.1417539599616717</v>
+        <v>1.1410119272660113</v>
       </c>
       <c r="L38" s="78">
         <f>J38+H38+F38+D38+B38</f>
-        <v>1384808.8258673961</v>
+        <v>1383908.830367431</v>
       </c>
       <c r="M38" s="77"/>
       <c r="N38" s="52">
         <f>H13</f>
-        <v>0.92321511606275797</v>
+        <v>0.92261511306275124</v>
       </c>
       <c r="O38" s="44">
         <f t="shared" si="12"/>
-        <v>115177.32590586296</v>
+        <v>116077.33040587325</v>
       </c>
       <c r="P38" s="46">
         <f>base_use_total-O38</f>
-        <v>1384822.674094137</v>
-      </c>
-      <c r="Q38" s="143">
+        <v>1383922.6695941268</v>
+      </c>
+      <c r="Q38" s="141">
         <f>((R38*S38)/T38)-((elasticity_sf*(base_use_sf-shortage_af_SF)*EXP((LN((base_use_sf-shortage_af_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))</f>
-        <v>26986998787.962753</v>
-      </c>
-      <c r="R38" s="142">
+        <v>26811725829.563038</v>
+      </c>
+      <c r="R38" s="140">
         <f>elasticity_sf*base_use_sf</f>
         <v>-224997.75</v>
       </c>
-      <c r="S38" s="142">
+      <c r="S38" s="140">
         <f>EXP((LN(base_use_sf/coeff_sf))/elasticity_sf)</f>
         <v>650.00000000000057</v>
       </c>
@@ -4511,9 +4505,9 @@
       </c>
       <c r="V38" s="11">
         <f>elasticity_sf*(base_use_sf-shortage_af_SF)</f>
-        <v>-64440.204971896113</v>
-      </c>
-      <c r="Y38" s="150">
+        <v>-64544.552276239876</v>
+      </c>
+      <c r="Y38" s="148">
         <f>IF(shortage_SF&lt;=lowerbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-lowerbound_SF)*EXP((LN((base_use_sf*(1-lowerbound_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)))), IF(shortage_SF&gt;=upperbound_SF,((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf*(1-upperbound_SF))*EXP((LN((base_use_sf*(1-upperbound_SF))/coeff_sf))/elasticity_sf))/(elasticity_sf + 1)), ((elasticity_sf*base_use_sf*EXP((LN(base_use_sf/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))-((elasticity_sf*(base_use_sf-shortage_af_SF)*EXP((LN((base_use_sf-shortage_af_SF)/coeff_sf))/elasticity_sf))/(elasticity_sf + 1))))</f>
         <v>22386408078.124992</v>
       </c>
@@ -4535,15 +4529,15 @@
       </c>
       <c r="AD38">
         <f>elasticity_mf*(base_use_mf-shortage_af_MF)</f>
-        <v>-38598.966894941295</v>
+        <v>-38617.749409723176</v>
       </c>
       <c r="AE38">
         <f>LN((base_use_mf-shortage_af_MF)/coeff_mf)</f>
-        <v>-1.3361287696423922</v>
-      </c>
-      <c r="AF38" s="146">
+        <v>-1.3356422813261004</v>
+      </c>
+      <c r="AF38" s="144">
         <f>IF(shortage_MF&lt;=lowerbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-lowerbound_MF)*EXP((LN((base_use_mf*(1-lowerbound_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)))), IF(shortage_MF&gt;=upperbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-upperbound_MF))*EXP((LN((base_use_mf*(1-upperbound_MF))/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)), ((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf-shortage_af_MF)*EXP((AE38)/elasticity_mf))/(elasticity_mf + 1))))</f>
-        <v>2954172599.3942294</v>
+        <v>2943474573.2709417</v>
       </c>
       <c r="AG38">
         <f>elasticity_ind*base_use_ind</f>
@@ -4563,11 +4557,11 @@
       </c>
       <c r="AK38">
         <f>elasticity_ind*(base_use_ind-shortage_af_IND)</f>
-        <v>-18485.836374297403</v>
+        <v>-18488.445056905995</v>
       </c>
       <c r="AL38" s="64">
         <f>IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>79007986.647711307</v>
+        <v>78887088.701905936</v>
       </c>
       <c r="AM38">
         <f>elasticity_comm*base_use_comm</f>
@@ -4587,11 +4581,11 @@
       </c>
       <c r="AQ38">
         <f>elasticity_comm*(base_use_comm-shortage_af_COM)</f>
-        <v>-7518.0105128998575</v>
+        <v>-7521.1670188562566</v>
       </c>
       <c r="AR38" s="64">
         <f>IF(shortage_COM&lt;=lowerbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-lowerbound_COM)*EXP((LN((base_use_comm*(1-lowerbound_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)))), IF(shortage_COM&gt;=upperbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-upperbound_COM))*EXP((LN((base_use_comm*(1-upperbound_COM))/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)), ((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm-shortage_af_COM)*EXP((LN((base_use_comm-shortage_af_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))))</f>
-        <v>500579135.4492389</v>
+        <v>498851244.08505064</v>
       </c>
       <c r="AS38">
         <f>elasticity_lndscp*base_use_lndscp</f>
@@ -4611,7 +4605,7 @@
       </c>
       <c r="AW38">
         <f>elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)</f>
-        <v>12757.728817986488</v>
+        <v>12690.946543206474</v>
       </c>
       <c r="AX38" s="64">
         <f>IF(shortage_LNDSCP&lt;=$U$14,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-low_bound_lndscp)*EXP((LN((base_use_lndscp*(1-low_bound_lndscp)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)))), IF(shortage_LNDSCP&gt;=upperbound_LNDSCP,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-upperbound_LNDSCP))*EXP((LN((base_use_lndscp*(1-upperbound_LNDSCP))/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)), ((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)*EXP((LN((base_use_lndscp-shortage_af_LNDSCP)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))))</f>
@@ -4619,15 +4613,15 @@
       </c>
       <c r="AY38" s="48">
         <f t="shared" si="20"/>
-        <v>19075.482745570349</v>
-      </c>
-      <c r="AZ38" s="146">
+        <v>19078.821907681722</v>
+      </c>
+      <c r="AZ38" s="144">
         <f t="shared" si="14"/>
-        <v>26416028944.919064</v>
+        <v>26403482129.485783</v>
       </c>
       <c r="BA38" s="65">
         <f t="shared" si="15"/>
-        <v>-1292501.1624878612</v>
+        <v>-1291661.1582878516</v>
       </c>
     </row>
     <row r="39" spans="2:53" x14ac:dyDescent="0.25">
@@ -4645,11 +4639,11 @@
       <c r="K39" s="9"/>
       <c r="L39" s="28"/>
       <c r="Q39" s="42"/>
-      <c r="R39" s="142">
+      <c r="R39" s="140">
         <f>elasticity_sf*base_use_sf</f>
         <v>-224997.75</v>
       </c>
-      <c r="S39" s="142">
+      <c r="S39" s="140">
         <f>EXP((LN(base_use_sf/coeff_sf))/elasticity_sf)</f>
         <v>650.00000000000057</v>
       </c>
@@ -4661,19 +4655,19 @@
         <f>(R39*S39)/T39</f>
         <v>-182810671.87500015</v>
       </c>
-      <c r="V39" s="149">
+      <c r="V39" s="147">
         <f>elasticity_sf*(base_use_sf*(1-upperbound_SF))</f>
         <v>-67499.325000000012</v>
       </c>
-      <c r="W39" s="149">
+      <c r="W39" s="147">
         <f>LN((base_use_sf*(1-upperbound_SF))/coeff_sf)</f>
         <v>-2.4993672769038726</v>
       </c>
-      <c r="X39" s="149">
+      <c r="X39" s="147">
         <f>EXP((W39/elasticity_sf)/(elasticity_sf+1))</f>
         <v>6083224.6331954384</v>
       </c>
-      <c r="Y39" s="146">
+      <c r="Y39" s="144">
         <f>U39-(V39*X39)</f>
         <v>410430745892.18976</v>
       </c>
@@ -4718,7 +4712,7 @@
       <c r="S40" s="42"/>
       <c r="T40" s="42"/>
       <c r="U40" s="42"/>
-      <c r="Y40" s="149"/>
+      <c r="Y40" s="147"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="42"/>
@@ -4906,79 +4900,79 @@
     <row r="45" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B45" s="60">
         <f t="shared" si="23"/>
-        <v>40139.185560652171</v>
+        <v>40113.098865</v>
       </c>
       <c r="C45" s="53">
         <f t="shared" si="24"/>
-        <v>3.5679632850241547E-2</v>
+        <v>3.5656444444444442E-2</v>
       </c>
       <c r="D45" s="55">
         <f t="shared" si="25"/>
-        <v>12041.755668195652</v>
+        <v>12033.929659499998</v>
       </c>
       <c r="E45" s="53">
         <f t="shared" si="26"/>
-        <v>2.1407779710144927E-2</v>
+        <v>2.1393866666666664E-2</v>
       </c>
       <c r="F45" s="55">
         <f t="shared" si="27"/>
-        <v>2006.9592780326088</v>
+        <v>2005.6549432499999</v>
       </c>
       <c r="G45" s="53">
         <f t="shared" si="28"/>
-        <v>8.9199082125603867E-3</v>
+        <v>8.9141111111111105E-3</v>
       </c>
       <c r="H45" s="55">
         <f t="shared" si="29"/>
-        <v>2207.6552058358698</v>
+        <v>2206.2204375749998</v>
       </c>
       <c r="I45" s="53">
         <f t="shared" si="30"/>
-        <v>1.9623798067632852E-2</v>
+        <v>1.9611044444444444E-2</v>
       </c>
       <c r="J45" s="55">
         <f t="shared" si="31"/>
-        <v>12844.539379408696</v>
+        <v>12836.1916368</v>
       </c>
       <c r="K45" s="53">
         <f t="shared" si="32"/>
-        <v>5.7087412560386477E-2</v>
+        <v>5.7050311111111113E-2</v>
       </c>
       <c r="L45" s="54">
         <f t="shared" si="33"/>
-        <v>69240.095092125004</v>
+        <v>69195.095542124996</v>
       </c>
       <c r="N45" s="51">
         <f t="shared" ref="N45:N61" si="36">($N$63/20)+N44</f>
-        <v>4.6160525000000001E-2</v>
+        <v>4.6130524999999999E-2</v>
       </c>
       <c r="O45" s="43">
         <f>base_use_total-(N45*base_use_total)</f>
-        <v>1430759.2124999999</v>
+        <v>1430804.2124999999</v>
       </c>
       <c r="P45" s="45">
         <f t="shared" si="35"/>
-        <v>69240.787500000093</v>
+        <v>69195.787500000093</v>
       </c>
       <c r="Q45" s="50">
         <f t="shared" ref="Q45:Q63" si="37">Y20/B45</f>
-        <v>712.39458227774355</v>
+        <v>712.35098021673457</v>
       </c>
       <c r="R45" s="50">
         <f t="shared" ref="R45:R63" si="38">AF20/D45</f>
-        <v>712.06923340641492</v>
+        <v>712.02608956412109</v>
       </c>
       <c r="S45" s="50">
         <f t="shared" ref="S45:S63" si="39">AL20/F45</f>
-        <v>679.96737615072243</v>
+        <v>679.94725234587645</v>
       </c>
       <c r="T45" s="50">
         <f t="shared" ref="T45:T63" si="40">AR20/H45</f>
-        <v>712.02891827626274</v>
+        <v>711.98583096596383</v>
       </c>
       <c r="U45" s="50">
         <f t="shared" ref="U45:U63" si="41">AX20/J45</f>
-        <v>699.68820216072356</v>
+        <v>699.65362111474315</v>
       </c>
       <c r="V45" s="41"/>
       <c r="W45" s="41"/>
@@ -4993,79 +4987,79 @@
     <row r="46" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B46" s="60">
         <f t="shared" si="23"/>
-        <v>80278.371121304343</v>
+        <v>80226.19773</v>
       </c>
       <c r="C46" s="53">
         <f t="shared" si="24"/>
-        <v>7.1359265700483093E-2</v>
+        <v>7.1312888888888884E-2</v>
       </c>
       <c r="D46" s="55">
         <f t="shared" si="25"/>
-        <v>24083.511336391304</v>
+        <v>24067.859318999996</v>
       </c>
       <c r="E46" s="53">
         <f t="shared" si="26"/>
-        <v>4.2815559420289855E-2</v>
+        <v>4.2787733333333328E-2</v>
       </c>
       <c r="F46" s="55">
         <f t="shared" si="27"/>
-        <v>4013.9185560652177</v>
+        <v>4011.3098864999997</v>
       </c>
       <c r="G46" s="53">
         <f t="shared" si="28"/>
-        <v>1.7839816425120773E-2</v>
+        <v>1.7828222222222221E-2</v>
       </c>
       <c r="H46" s="55">
         <f t="shared" si="29"/>
-        <v>4415.3104116717395</v>
+        <v>4412.4408751499996</v>
       </c>
       <c r="I46" s="53">
         <f t="shared" si="30"/>
-        <v>3.9247596135265704E-2</v>
+        <v>3.9222088888888888E-2</v>
       </c>
       <c r="J46" s="55">
         <f t="shared" si="31"/>
-        <v>25689.078758817392</v>
+        <v>25672.3832736</v>
       </c>
       <c r="K46" s="53">
         <f t="shared" si="32"/>
-        <v>0.11417482512077295</v>
+        <v>0.11410062222222223</v>
       </c>
       <c r="L46" s="54">
         <f t="shared" si="33"/>
-        <v>138480.19018425001</v>
+        <v>138390.19108424999</v>
       </c>
       <c r="N46" s="51">
         <f t="shared" si="36"/>
-        <v>9.2321050000000002E-2</v>
+        <v>9.2261049999999997E-2</v>
       </c>
       <c r="O46" s="43">
         <f t="shared" ref="O46:O63" si="42">base_use_total-(N46*base_use_total)</f>
-        <v>1361518.425</v>
+        <v>1361608.425</v>
       </c>
       <c r="P46" s="45">
         <f t="shared" si="35"/>
-        <v>138481.57499999995</v>
+        <v>138391.57499999995</v>
       </c>
       <c r="Q46" s="50">
         <f t="shared" si="37"/>
-        <v>784.84373341137064</v>
+        <v>784.74213279750268</v>
       </c>
       <c r="R46" s="50">
         <f t="shared" si="38"/>
-        <v>783.29979581398436</v>
+        <v>783.20054988361289</v>
       </c>
       <c r="S46" s="50">
         <f t="shared" si="39"/>
-        <v>711.98868079739157</v>
+        <v>711.9456498559814</v>
       </c>
       <c r="T46" s="50">
         <f t="shared" si="40"/>
-        <v>783.11043245154542</v>
+        <v>783.01147260005166</v>
       </c>
       <c r="U46" s="50">
         <f t="shared" si="41"/>
-        <v>756.94302140153002</v>
+        <v>756.86297016028038</v>
       </c>
       <c r="V46" s="41"/>
       <c r="W46" s="41"/>
@@ -5080,79 +5074,79 @@
     <row r="47" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B47" s="60">
         <f t="shared" si="23"/>
-        <v>120417.55668195653</v>
+        <v>120339.29659499999</v>
       </c>
       <c r="C47" s="53">
         <f t="shared" si="24"/>
-        <v>0.10703889855072464</v>
+        <v>0.10696933333333333</v>
       </c>
       <c r="D47" s="55">
         <f t="shared" si="25"/>
-        <v>36125.267004586953</v>
+        <v>36101.788978499993</v>
       </c>
       <c r="E47" s="53">
         <f t="shared" si="26"/>
-        <v>6.4223339130434778E-2</v>
+        <v>6.4181599999999991E-2</v>
       </c>
       <c r="F47" s="55">
         <f t="shared" si="27"/>
-        <v>6020.8778340978261</v>
+        <v>6016.9648297499998</v>
       </c>
       <c r="G47" s="53">
         <f t="shared" si="28"/>
-        <v>2.675972463768116E-2</v>
+        <v>2.6742333333333333E-2</v>
       </c>
       <c r="H47" s="55">
         <f t="shared" si="29"/>
-        <v>6622.9656175076097</v>
+        <v>6618.6613127250002</v>
       </c>
       <c r="I47" s="53">
         <f t="shared" si="30"/>
-        <v>5.887139420289856E-2</v>
+        <v>5.8833133333333336E-2</v>
       </c>
       <c r="J47" s="55">
         <f t="shared" si="31"/>
-        <v>38533.618138226091</v>
+        <v>38508.574910399999</v>
       </c>
       <c r="K47" s="53">
         <f t="shared" si="32"/>
-        <v>0.17126223768115945</v>
+        <v>0.17115093333333334</v>
       </c>
       <c r="L47" s="54">
         <f t="shared" si="33"/>
-        <v>207720.28527637501</v>
+        <v>207585.28662637499</v>
       </c>
       <c r="N47" s="51">
         <f t="shared" si="36"/>
-        <v>0.138481575</v>
+        <v>0.13839157499999999</v>
       </c>
       <c r="O47" s="43">
         <f t="shared" si="42"/>
-        <v>1292277.6375</v>
+        <v>1292412.6375</v>
       </c>
       <c r="P47" s="45">
         <f t="shared" si="35"/>
-        <v>207722.36250000005</v>
+        <v>207587.36250000005</v>
       </c>
       <c r="Q47" s="50">
         <f t="shared" si="37"/>
-        <v>869.57599316623975</v>
+        <v>869.39711009765369</v>
       </c>
       <c r="R47" s="50">
         <f t="shared" si="38"/>
-        <v>865.42927035570744</v>
+        <v>865.2572307064346</v>
       </c>
       <c r="S47" s="50">
         <f t="shared" si="39"/>
-        <v>746.24255517164227</v>
+        <v>746.17347563082524</v>
       </c>
       <c r="T47" s="50">
         <f t="shared" si="40"/>
-        <v>864.92672954913303</v>
+        <v>864.75550662935916</v>
       </c>
       <c r="U47" s="50">
         <f t="shared" si="41"/>
-        <v>823.55408717748935</v>
+        <v>823.41368806109824</v>
       </c>
       <c r="V47" s="41"/>
       <c r="W47" s="41"/>
@@ -5167,79 +5161,79 @@
     <row r="48" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B48" s="60">
         <f t="shared" si="23"/>
-        <v>160556.74224260869</v>
+        <v>160452.39546</v>
       </c>
       <c r="C48" s="53">
         <f t="shared" si="24"/>
-        <v>0.14271853140096619</v>
+        <v>0.14262577777777777</v>
       </c>
       <c r="D48" s="55">
         <f t="shared" si="25"/>
-        <v>48167.022672782608</v>
+        <v>48135.718637999991</v>
       </c>
       <c r="E48" s="53">
         <f t="shared" si="26"/>
-        <v>8.5631118840579709E-2</v>
+        <v>8.5575466666666655E-2</v>
       </c>
       <c r="F48" s="55">
         <f t="shared" si="27"/>
-        <v>8027.8371121304353</v>
+        <v>8022.6197729999994</v>
       </c>
       <c r="G48" s="53">
         <f t="shared" si="28"/>
-        <v>3.5679632850241547E-2</v>
+        <v>3.5656444444444442E-2</v>
       </c>
       <c r="H48" s="55">
         <f t="shared" si="29"/>
-        <v>8830.6208233434791</v>
+        <v>8824.8817502999991</v>
       </c>
       <c r="I48" s="53">
         <f t="shared" si="30"/>
-        <v>7.8495192270531408E-2</v>
+        <v>7.8444177777777777E-2</v>
       </c>
       <c r="J48" s="55">
         <f t="shared" si="31"/>
-        <v>51378.157517634783</v>
+        <v>51344.766547200001</v>
       </c>
       <c r="K48" s="53">
         <f t="shared" si="32"/>
-        <v>0.22834965024154591</v>
+        <v>0.22820124444444445</v>
       </c>
       <c r="L48" s="54">
         <f t="shared" si="33"/>
-        <v>276960.38036850002</v>
+        <v>276780.38216849999</v>
       </c>
       <c r="N48" s="51">
         <f t="shared" si="36"/>
-        <v>0.1846421</v>
+        <v>0.18452209999999999</v>
       </c>
       <c r="O48" s="43">
         <f t="shared" si="42"/>
-        <v>1223036.8500000001</v>
+        <v>1223216.8500000001</v>
       </c>
       <c r="P48" s="45">
         <f t="shared" si="35"/>
-        <v>276963.14999999991</v>
+        <v>276783.14999999991</v>
       </c>
       <c r="Q48" s="50">
         <f t="shared" si="37"/>
-        <v>969.44422504109048</v>
+        <v>969.16200862023777</v>
       </c>
       <c r="R48" s="50">
         <f t="shared" si="38"/>
-        <v>960.58640657076114</v>
+        <v>960.32000025229956</v>
       </c>
       <c r="S48" s="50">
         <f t="shared" si="39"/>
-        <v>782.92185577381485</v>
+        <v>782.82318022574248</v>
       </c>
       <c r="T48" s="50">
         <f t="shared" si="40"/>
-        <v>959.52776962593396</v>
+        <v>959.263211697202</v>
       </c>
       <c r="U48" s="50">
         <f t="shared" si="41"/>
-        <v>901.89889526966056</v>
+        <v>901.67745784176077</v>
       </c>
       <c r="V48" s="41"/>
       <c r="W48" s="41"/>
@@ -5254,79 +5248,79 @@
     <row r="49" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B49" s="60">
         <f t="shared" si="23"/>
-        <v>200695.92780326089</v>
+        <v>200565.49432500001</v>
       </c>
       <c r="C49" s="53">
         <f t="shared" si="24"/>
-        <v>0.17839816425120775</v>
+        <v>0.17828222222222223</v>
       </c>
       <c r="D49" s="55">
         <f t="shared" si="25"/>
-        <v>60208.778340978264</v>
+        <v>60169.648297499996</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" si="26"/>
-        <v>0.10703889855072464</v>
+        <v>0.10696933333333333</v>
       </c>
       <c r="F49" s="55">
         <f t="shared" si="27"/>
-        <v>10034.796390163045</v>
+        <v>10028.27471625</v>
       </c>
       <c r="G49" s="53">
         <f t="shared" si="28"/>
-        <v>4.4599541062801937E-2</v>
+        <v>4.4570555555555558E-2</v>
       </c>
       <c r="H49" s="55">
         <f t="shared" si="29"/>
-        <v>11038.276029179349</v>
+        <v>11031.102187875002</v>
       </c>
       <c r="I49" s="53">
         <f t="shared" si="30"/>
-        <v>9.8118990338164264E-2</v>
+        <v>9.8055222222222238E-2</v>
       </c>
       <c r="J49" s="55">
         <f t="shared" si="31"/>
-        <v>64222.69689704349</v>
+        <v>64180.95818400001</v>
       </c>
       <c r="K49" s="53">
         <f t="shared" si="32"/>
-        <v>0.28543706280193243</v>
+        <v>0.28525155555555559</v>
       </c>
       <c r="L49" s="54">
         <f t="shared" si="33"/>
-        <v>346200.47546062502</v>
+        <v>345975.47771062504</v>
       </c>
       <c r="N49" s="51">
         <f t="shared" si="36"/>
-        <v>0.23080262500000001</v>
+        <v>0.230652625</v>
       </c>
       <c r="O49" s="43">
         <f t="shared" si="42"/>
-        <v>1153796.0625</v>
+        <v>1154021.0625</v>
       </c>
       <c r="P49" s="45">
         <f t="shared" si="35"/>
-        <v>346203.9375</v>
+        <v>345978.9375</v>
       </c>
       <c r="Q49" s="50">
         <f t="shared" si="37"/>
-        <v>1088.1459787606268</v>
+        <v>1087.7248999972078</v>
       </c>
       <c r="R49" s="50">
         <f t="shared" si="38"/>
-        <v>1071.3987758230896</v>
+        <v>1071.0100156205006</v>
       </c>
       <c r="S49" s="50">
         <f t="shared" si="39"/>
-        <v>822.23887550144082</v>
+        <v>822.10659599861606</v>
       </c>
       <c r="T49" s="50">
         <f t="shared" si="40"/>
-        <v>1069.4292746771034</v>
+        <v>1069.044204483489</v>
       </c>
       <c r="U49" s="50">
         <f t="shared" si="41"/>
-        <v>995.20645844818057</v>
+        <v>994.8746116710181</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="41"/>
@@ -5341,79 +5335,79 @@
     <row r="50" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B50" s="60">
         <f t="shared" si="23"/>
-        <v>240835.11336391306</v>
+        <v>240678.59318999999</v>
       </c>
       <c r="C50" s="53">
         <f t="shared" si="24"/>
-        <v>0.21407779710144928</v>
+        <v>0.21393866666666667</v>
       </c>
       <c r="D50" s="55">
         <f t="shared" si="25"/>
-        <v>72250.534009173905</v>
+        <v>72203.577956999987</v>
       </c>
       <c r="E50" s="53">
         <f t="shared" si="26"/>
-        <v>0.12844667826086956</v>
+        <v>0.12836319999999998</v>
       </c>
       <c r="F50" s="55">
         <f t="shared" si="27"/>
-        <v>12041.755668195652</v>
+        <v>12033.9296595</v>
       </c>
       <c r="G50" s="53">
         <f t="shared" si="28"/>
-        <v>5.351944927536232E-2</v>
+        <v>5.3484666666666666E-2</v>
       </c>
       <c r="H50" s="55">
         <f t="shared" si="29"/>
-        <v>13245.931235015219</v>
+        <v>13237.32262545</v>
       </c>
       <c r="I50" s="53">
         <f t="shared" si="30"/>
-        <v>0.11774278840579712</v>
+        <v>0.11766626666666667</v>
       </c>
       <c r="J50" s="55">
         <f t="shared" si="31"/>
-        <v>77067.236276452182</v>
+        <v>77017.149820799998</v>
       </c>
       <c r="K50" s="53">
         <f t="shared" si="32"/>
-        <v>0.34252447536231889</v>
+        <v>0.34230186666666668</v>
       </c>
       <c r="L50" s="54">
         <f t="shared" si="33"/>
-        <v>415440.57055275002</v>
+        <v>415170.57325274998</v>
       </c>
       <c r="N50" s="51">
         <f t="shared" si="36"/>
-        <v>0.27696314999999999</v>
+        <v>0.27678314999999998</v>
       </c>
       <c r="O50" s="43">
         <f t="shared" si="42"/>
-        <v>1084555.2749999999</v>
+        <v>1084825.2749999999</v>
       </c>
       <c r="P50" s="45">
         <f t="shared" si="35"/>
-        <v>415444.72500000009</v>
+        <v>415174.72500000009</v>
       </c>
       <c r="Q50" s="50">
         <f t="shared" si="37"/>
-        <v>1230.5306120166226</v>
+        <v>1229.9216978214793</v>
       </c>
       <c r="R50" s="50">
         <f t="shared" si="38"/>
-        <v>1201.1287371714836</v>
+        <v>1200.5811621065909</v>
       </c>
       <c r="S50" s="50">
         <f t="shared" si="39"/>
-        <v>864.42756241836139</v>
+        <v>864.25714807086797</v>
       </c>
       <c r="T50" s="50">
         <f t="shared" si="40"/>
-        <v>1197.7349080409526</v>
+        <v>1197.194148954329</v>
       </c>
       <c r="U50" s="50">
         <f t="shared" si="41"/>
-        <v>1107.9658891556285</v>
+        <v>1107.4809275953969</v>
       </c>
       <c r="V50" s="41"/>
       <c r="W50" s="41"/>
@@ -5428,79 +5422,79 @@
     <row r="51" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B51" s="60">
         <f t="shared" si="23"/>
-        <v>280974.29892456526</v>
+        <v>280791.69205499993</v>
       </c>
       <c r="C51" s="53">
         <f t="shared" si="24"/>
-        <v>0.24975742995169084</v>
+        <v>0.24959511111111107</v>
       </c>
       <c r="D51" s="55">
         <f t="shared" si="25"/>
-        <v>84292.289677369568</v>
+        <v>84237.507616499977</v>
       </c>
       <c r="E51" s="53">
         <f t="shared" si="26"/>
-        <v>0.14985445797101449</v>
+        <v>0.14975706666666663</v>
       </c>
       <c r="F51" s="55">
         <f t="shared" si="27"/>
-        <v>14048.714946228261</v>
+        <v>14039.584602749997</v>
       </c>
       <c r="G51" s="53">
         <f t="shared" si="28"/>
-        <v>6.243935748792271E-2</v>
+        <v>6.2398777777777768E-2</v>
       </c>
       <c r="H51" s="55">
         <f t="shared" si="29"/>
-        <v>15453.58644085109</v>
+        <v>15443.543063024999</v>
       </c>
       <c r="I51" s="53">
         <f t="shared" si="30"/>
-        <v>0.13736658647342997</v>
+        <v>0.13727731111111111</v>
       </c>
       <c r="J51" s="55">
         <f t="shared" si="31"/>
-        <v>89911.775655860882</v>
+        <v>89853.341457599992</v>
       </c>
       <c r="K51" s="53">
         <f t="shared" si="32"/>
-        <v>0.39961188792270536</v>
+        <v>0.39935217777777776</v>
       </c>
       <c r="L51" s="54">
         <f t="shared" si="33"/>
-        <v>484680.66564487503</v>
+        <v>484365.66879487492</v>
       </c>
       <c r="N51" s="51">
         <f t="shared" si="36"/>
-        <v>0.323123675</v>
+        <v>0.32291367499999996</v>
       </c>
       <c r="O51" s="43">
         <f t="shared" si="42"/>
-        <v>1015314.4875</v>
+        <v>1015629.4875</v>
       </c>
       <c r="P51" s="45">
         <f t="shared" si="35"/>
-        <v>484685.51249999995</v>
+        <v>484370.51249999995</v>
       </c>
       <c r="Q51" s="50">
         <f t="shared" si="37"/>
-        <v>1403.0404484229243</v>
+        <v>1402.1753898257844</v>
       </c>
       <c r="R51" s="50">
         <f t="shared" si="38"/>
-        <v>1353.8517199646508</v>
+        <v>1353.0976106635433</v>
       </c>
       <c r="S51" s="50">
         <f t="shared" si="39"/>
-        <v>909.74602039343665</v>
+        <v>909.53234596395259</v>
       </c>
       <c r="T51" s="50">
         <f t="shared" si="40"/>
-        <v>1348.2947994292874</v>
+        <v>1347.5526419659211</v>
       </c>
       <c r="U51" s="50">
         <f t="shared" si="41"/>
-        <v>1246.5901731886572</v>
+        <v>1245.8882214519051</v>
       </c>
       <c r="V51" s="41"/>
       <c r="W51" s="41"/>
@@ -5515,79 +5509,79 @@
     <row r="52" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B52" s="60">
         <f t="shared" si="23"/>
-        <v>321113.48448521737</v>
+        <v>320904.79092</v>
       </c>
       <c r="C52" s="53">
         <f t="shared" si="24"/>
-        <v>0.28543706280193237</v>
+        <v>0.28525155555555554</v>
       </c>
       <c r="D52" s="55">
         <f t="shared" si="25"/>
-        <v>96334.045345565217</v>
+        <v>96271.437275999982</v>
       </c>
       <c r="E52" s="53">
         <f t="shared" si="26"/>
-        <v>0.17126223768115942</v>
+        <v>0.17115093333333331</v>
       </c>
       <c r="F52" s="55">
         <f t="shared" si="27"/>
-        <v>16055.674224260871</v>
+        <v>16045.239545999999</v>
       </c>
       <c r="G52" s="53">
         <f t="shared" si="28"/>
-        <v>7.1359265700483093E-2</v>
+        <v>7.1312888888888884E-2</v>
       </c>
       <c r="H52" s="55">
         <f t="shared" si="29"/>
-        <v>17661.241646686958</v>
+        <v>17649.763500599998</v>
       </c>
       <c r="I52" s="53">
         <f t="shared" si="30"/>
-        <v>0.15699038454106282</v>
+        <v>0.15688835555555555</v>
       </c>
       <c r="J52" s="55">
         <f t="shared" si="31"/>
-        <v>102756.31503526957</v>
+        <v>102689.5330944</v>
       </c>
       <c r="K52" s="53">
         <f t="shared" si="32"/>
-        <v>0.45669930048309182</v>
+        <v>0.4564024888888889</v>
       </c>
       <c r="L52" s="54">
         <f t="shared" si="33"/>
-        <v>553920.76073700003</v>
+        <v>553560.76433699997</v>
       </c>
       <c r="N52" s="51">
         <f t="shared" si="36"/>
-        <v>0.36928420000000001</v>
+        <v>0.36904419999999993</v>
       </c>
       <c r="O52" s="43">
         <f t="shared" si="42"/>
-        <v>946073.7</v>
+        <v>946433.70000000007</v>
       </c>
       <c r="P52" s="45">
         <f t="shared" si="35"/>
-        <v>553926.30000000005</v>
+        <v>553566.29999999993</v>
       </c>
       <c r="Q52" s="50">
         <f t="shared" si="37"/>
-        <v>1614.3551341735292</v>
+        <v>1613.1373849124097</v>
       </c>
       <c r="R52" s="50">
         <f t="shared" si="38"/>
-        <v>1534.6916746855584</v>
+        <v>1533.6682628385406</v>
       </c>
       <c r="S52" s="50">
         <f t="shared" si="39"/>
-        <v>958.47933098672775</v>
+        <v>958.21659509421215</v>
       </c>
       <c r="T52" s="50">
         <f t="shared" si="40"/>
-        <v>1525.9125301041504</v>
+        <v>1524.9093232886014</v>
       </c>
       <c r="U52" s="50">
         <f t="shared" si="41"/>
-        <v>1420.539283614763</v>
+        <v>1419.5215186730529</v>
       </c>
       <c r="V52" s="41"/>
       <c r="W52" s="41"/>
@@ -5602,79 +5596,79 @@
     <row r="53" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B53" s="60">
         <f t="shared" si="23"/>
-        <v>361252.6700458696</v>
+        <v>361017.88978499989</v>
       </c>
       <c r="C53" s="53">
         <f t="shared" si="24"/>
-        <v>0.32111669565217393</v>
+        <v>0.32090799999999992</v>
       </c>
       <c r="D53" s="55">
         <f t="shared" si="25"/>
-        <v>108375.80101376087</v>
+        <v>108305.36693549996</v>
       </c>
       <c r="E53" s="53">
         <f t="shared" si="26"/>
-        <v>0.19267001739130435</v>
+        <v>0.19254479999999993</v>
       </c>
       <c r="F53" s="55">
         <f t="shared" si="27"/>
-        <v>18062.63350229348</v>
+        <v>18050.894489249997</v>
       </c>
       <c r="G53" s="53">
         <f t="shared" si="28"/>
-        <v>8.0279173913043483E-2</v>
+        <v>8.0226999999999979E-2</v>
       </c>
       <c r="H53" s="55">
         <f t="shared" si="29"/>
-        <v>19868.89685252283</v>
+        <v>19855.983938174995</v>
       </c>
       <c r="I53" s="53">
         <f t="shared" si="30"/>
-        <v>0.17661418260869569</v>
+        <v>0.17649939999999997</v>
       </c>
       <c r="J53" s="55">
         <f t="shared" si="31"/>
-        <v>115600.85441467828</v>
+        <v>115525.72473119998</v>
       </c>
       <c r="K53" s="53">
         <f t="shared" si="32"/>
-        <v>0.51378671304347834</v>
+        <v>0.51345279999999993</v>
       </c>
       <c r="L53" s="54">
         <f t="shared" si="33"/>
-        <v>623160.85582912504</v>
+        <v>622755.85987912491</v>
       </c>
       <c r="N53" s="51">
         <f t="shared" si="36"/>
-        <v>0.41544472500000001</v>
+        <v>0.41517472499999991</v>
       </c>
       <c r="O53" s="43">
         <f t="shared" si="42"/>
-        <v>876832.91249999998</v>
+        <v>877237.91250000009</v>
       </c>
       <c r="P53" s="45">
         <f t="shared" si="35"/>
-        <v>623167.08750000002</v>
+        <v>622762.08749999991</v>
       </c>
       <c r="Q53" s="50">
         <f t="shared" si="37"/>
-        <v>1876.3501136316074</v>
+        <v>1874.6411904124702</v>
       </c>
       <c r="R53" s="50">
         <f t="shared" si="38"/>
-        <v>1750.1343685947356</v>
+        <v>1748.7586402698719</v>
       </c>
       <c r="S53" s="50">
         <f t="shared" si="39"/>
-        <v>1010.9427419582513</v>
+        <v>1010.624373271579</v>
       </c>
       <c r="T53" s="50">
         <f t="shared" si="40"/>
-        <v>1736.6171780928084</v>
+        <v>1735.2747150774885</v>
       </c>
       <c r="U53" s="50">
         <f t="shared" si="41"/>
-        <v>1644.3144399007822</v>
+        <v>1642.8215766435719</v>
       </c>
       <c r="V53" s="42"/>
       <c r="W53" s="42"/>
@@ -5689,79 +5683,79 @@
     <row r="54" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B54" s="60">
         <f t="shared" si="23"/>
-        <v>401391.85560652177</v>
+        <v>401130.9886499999</v>
       </c>
       <c r="C54" s="53">
         <f t="shared" si="24"/>
-        <v>0.35679632850241549</v>
+        <v>0.35656444444444435</v>
       </c>
       <c r="D54" s="55">
         <f t="shared" si="25"/>
-        <v>120417.55668195653</v>
+        <v>120339.29659499996</v>
       </c>
       <c r="E54" s="53">
         <f t="shared" si="26"/>
-        <v>0.21407779710144928</v>
+        <v>0.21393866666666661</v>
       </c>
       <c r="F54" s="55">
         <f t="shared" si="27"/>
-        <v>20069.592780326089</v>
+        <v>20056.549432499996</v>
       </c>
       <c r="G54" s="53">
         <f t="shared" si="28"/>
-        <v>8.9199082125603874E-2</v>
+        <v>8.9141111111111088E-2</v>
       </c>
       <c r="H54" s="55">
         <f t="shared" si="29"/>
-        <v>22076.552058358699</v>
+        <v>22062.204375749996</v>
       </c>
       <c r="I54" s="53">
         <f t="shared" si="30"/>
-        <v>0.19623798067632853</v>
+        <v>0.19611044444444442</v>
       </c>
       <c r="J54" s="55">
         <f t="shared" si="31"/>
-        <v>128445.39379408698</v>
+        <v>128361.91636799996</v>
       </c>
       <c r="K54" s="53">
         <f t="shared" si="32"/>
-        <v>0.57087412560386486</v>
+        <v>0.57050311111111096</v>
       </c>
       <c r="L54" s="54">
         <f t="shared" si="33"/>
-        <v>692400.95092125004</v>
+        <v>691950.95542124985</v>
       </c>
       <c r="N54" s="51">
         <f t="shared" si="36"/>
-        <v>0.46160525000000002</v>
+        <v>0.46130524999999989</v>
       </c>
       <c r="O54" s="43">
         <f t="shared" si="42"/>
-        <v>807592.125</v>
+        <v>808042.12500000012</v>
       </c>
       <c r="P54" s="45">
         <f t="shared" si="35"/>
-        <v>692407.875</v>
+        <v>691957.87499999988</v>
       </c>
       <c r="Q54" s="50">
         <f t="shared" si="37"/>
-        <v>2205.5511895739892</v>
+        <v>2203.1491523579107</v>
       </c>
       <c r="R54" s="50">
         <f t="shared" si="38"/>
-        <v>2008.4475636972188</v>
+        <v>2006.6090810514656</v>
       </c>
       <c r="S54" s="50">
         <f t="shared" si="39"/>
-        <v>1067.4852747605485</v>
+        <v>1067.1038242936959</v>
       </c>
       <c r="T54" s="50">
         <f t="shared" si="40"/>
-        <v>1988.0233413626434</v>
+        <v>1986.2385722343481</v>
       </c>
       <c r="U54" s="50">
         <f t="shared" si="41"/>
-        <v>1941.2115210433299</v>
+        <v>1938.9734896890113</v>
       </c>
       <c r="V54" s="41"/>
       <c r="W54" s="41"/>
@@ -5776,79 +5770,79 @@
     <row r="55" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B55" s="60">
         <f t="shared" si="23"/>
-        <v>441531.04116717388</v>
+        <v>441244.08751499996</v>
       </c>
       <c r="C55" s="53">
         <f t="shared" si="24"/>
-        <v>0.392475961352657</v>
+        <v>0.39222088888888884</v>
       </c>
       <c r="D55" s="55">
         <f t="shared" si="25"/>
-        <v>132459.31235015218</v>
+        <v>132373.22625449998</v>
       </c>
       <c r="E55" s="53">
         <f t="shared" si="26"/>
-        <v>0.23548557681159418</v>
+        <v>0.23533253333333329</v>
       </c>
       <c r="F55" s="55">
         <f t="shared" si="27"/>
-        <v>22076.552058358695</v>
+        <v>22062.204375749996</v>
       </c>
       <c r="G55" s="53">
         <f t="shared" si="28"/>
-        <v>9.811899033816425E-2</v>
+        <v>9.805522222222221E-2</v>
       </c>
       <c r="H55" s="55">
         <f t="shared" si="29"/>
-        <v>24284.207264194567</v>
+        <v>24268.424813324997</v>
       </c>
       <c r="I55" s="53">
         <f t="shared" si="30"/>
-        <v>0.21586177874396137</v>
+        <v>0.21572148888888887</v>
       </c>
       <c r="J55" s="55">
         <f t="shared" si="31"/>
-        <v>141289.93317349566</v>
+        <v>141198.10800479999</v>
       </c>
       <c r="K55" s="53">
         <f t="shared" si="32"/>
-        <v>0.62796153816425127</v>
+        <v>0.62755342222222221</v>
       </c>
       <c r="L55" s="54">
         <f t="shared" si="33"/>
-        <v>761641.04601337505</v>
+        <v>761146.05096337502</v>
       </c>
       <c r="N55" s="51">
         <f t="shared" si="36"/>
-        <v>0.50776577499999997</v>
+        <v>0.50743577499999992</v>
       </c>
       <c r="O55" s="43">
         <f t="shared" si="42"/>
-        <v>738351.33750000002</v>
+        <v>738846.33750000014</v>
       </c>
       <c r="P55" s="45">
         <f t="shared" si="35"/>
-        <v>761648.66249999998</v>
+        <v>761153.66249999986</v>
       </c>
       <c r="Q55" s="50">
         <f t="shared" si="37"/>
-        <v>2625.3912138918863</v>
+        <v>2621.9960886633226</v>
       </c>
       <c r="R55" s="50">
         <f t="shared" si="38"/>
-        <v>2320.2492304783673</v>
+        <v>2317.8001369653712</v>
       </c>
       <c r="S55" s="50">
         <f t="shared" si="39"/>
-        <v>1128.4938115276477</v>
+        <v>1128.0408288299159</v>
       </c>
       <c r="T55" s="50">
         <f t="shared" si="40"/>
-        <v>2289.8110296737927</v>
+        <v>2287.4474364334533</v>
       </c>
       <c r="U55" s="50">
         <f t="shared" si="41"/>
-        <v>2350.9110914521962</v>
+        <v>2347.4396939333778</v>
       </c>
       <c r="V55" s="41"/>
       <c r="W55" s="41"/>
@@ -5863,79 +5857,79 @@
     <row r="56" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B56" s="60">
         <f t="shared" si="23"/>
-        <v>481670.22672782611</v>
+        <v>481357.18637999997</v>
       </c>
       <c r="C56" s="53">
         <f t="shared" si="24"/>
-        <v>0.42815559420289856</v>
+        <v>0.42787733333333333</v>
       </c>
       <c r="D56" s="55">
         <f t="shared" si="25"/>
-        <v>144501.06801834781</v>
+        <v>144407.15591399997</v>
       </c>
       <c r="E56" s="53">
         <f t="shared" si="26"/>
-        <v>0.25689335652173911</v>
+        <v>0.25672639999999997</v>
       </c>
       <c r="F56" s="55">
         <f t="shared" si="27"/>
-        <v>24083.511336391304</v>
+        <v>24067.859318999999</v>
       </c>
       <c r="G56" s="53">
         <f t="shared" si="28"/>
-        <v>0.10703889855072464</v>
+        <v>0.10696933333333333</v>
       </c>
       <c r="H56" s="55">
         <f t="shared" si="29"/>
-        <v>26491.862470030439</v>
+        <v>26474.645250900001</v>
       </c>
       <c r="I56" s="53">
         <f t="shared" si="30"/>
-        <v>0.23548557681159424</v>
+        <v>0.23533253333333334</v>
       </c>
       <c r="J56" s="55">
         <f t="shared" si="31"/>
-        <v>154134.47255290436</v>
+        <v>154034.2996416</v>
       </c>
       <c r="K56" s="53">
         <f t="shared" si="32"/>
-        <v>0.68504895072463778</v>
+        <v>0.68460373333333335</v>
       </c>
       <c r="L56" s="54">
         <f t="shared" si="33"/>
-        <v>830881.14110550005</v>
+        <v>830341.14650549996</v>
       </c>
       <c r="N56" s="51">
         <f t="shared" si="36"/>
-        <v>0.55392629999999998</v>
+        <v>0.55356629999999996</v>
       </c>
       <c r="O56" s="43">
         <f t="shared" si="42"/>
-        <v>669110.55000000005</v>
+        <v>669650.55000000005</v>
       </c>
       <c r="P56" s="45">
         <f t="shared" si="35"/>
-        <v>830889.45</v>
+        <v>830349.45</v>
       </c>
       <c r="Q56" s="50">
         <f t="shared" si="37"/>
-        <v>3169.7980080763155</v>
+        <v>3164.9548108783647</v>
       </c>
       <c r="R56" s="50">
         <f t="shared" si="38"/>
-        <v>2699.2826849713724</v>
+        <v>2696.0236711098801</v>
       </c>
       <c r="S56" s="50">
         <f t="shared" si="39"/>
-        <v>1194.3977315979002</v>
+        <v>1193.8636222575726</v>
       </c>
       <c r="T56" s="50">
         <f t="shared" si="40"/>
-        <v>2654.3701687336611</v>
+        <v>2651.2458478777321</v>
       </c>
       <c r="U56" s="50">
         <f t="shared" si="41"/>
-        <v>2946.2876052767001</v>
+        <v>2940.6233722030502</v>
       </c>
       <c r="V56" s="41"/>
       <c r="W56" s="41"/>
@@ -5950,79 +5944,79 @@
     <row r="57" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B57" s="60">
         <f t="shared" si="23"/>
-        <v>521809.41228847828</v>
+        <v>521470.28524499998</v>
       </c>
       <c r="C57" s="53">
         <f t="shared" si="24"/>
-        <v>0.46383522705314012</v>
+        <v>0.46353377777777777</v>
       </c>
       <c r="D57" s="55">
         <f t="shared" si="25"/>
-        <v>156542.82368654347</v>
+        <v>156441.08557349999</v>
       </c>
       <c r="E57" s="53">
         <f t="shared" si="26"/>
-        <v>0.27830113623188407</v>
+        <v>0.27812026666666667</v>
       </c>
       <c r="F57" s="55">
         <f t="shared" si="27"/>
-        <v>26090.470614423914</v>
+        <v>26073.514262249999</v>
       </c>
       <c r="G57" s="53">
         <f t="shared" si="28"/>
-        <v>0.11595880676328503</v>
+        <v>0.11588344444444444</v>
       </c>
       <c r="H57" s="55">
         <f t="shared" si="29"/>
-        <v>28699.517675866307</v>
+        <v>28680.865688475005</v>
       </c>
       <c r="I57" s="53">
         <f t="shared" si="30"/>
-        <v>0.25510937487922708</v>
+        <v>0.25494357777777782</v>
       </c>
       <c r="J57" s="55">
         <f t="shared" si="31"/>
-        <v>166979.01193231306</v>
+        <v>166870.4912784</v>
       </c>
       <c r="K57" s="53">
         <f t="shared" si="32"/>
-        <v>0.74213636328502419</v>
+        <v>0.74165404444444449</v>
       </c>
       <c r="L57" s="54">
         <f t="shared" si="33"/>
-        <v>900121.23619762505</v>
+        <v>899536.2420476249</v>
       </c>
       <c r="N57" s="51">
         <f t="shared" si="36"/>
-        <v>0.60008682499999999</v>
+        <v>0.59969682499999999</v>
       </c>
       <c r="O57" s="43">
         <f t="shared" si="42"/>
-        <v>599869.76250000007</v>
+        <v>600454.76250000007</v>
       </c>
       <c r="P57" s="45">
         <f t="shared" si="35"/>
-        <v>900130.23749999993</v>
+        <v>899545.23749999993</v>
       </c>
       <c r="Q57" s="50">
         <f t="shared" si="37"/>
-        <v>3889.0566412477137</v>
+        <v>3882.0588050326814</v>
       </c>
       <c r="R57" s="50">
         <f t="shared" si="38"/>
-        <v>3163.4837696616823</v>
+        <v>3159.1441898934386</v>
       </c>
       <c r="S57" s="50">
         <f t="shared" si="39"/>
-        <v>1265.6741787567009</v>
+        <v>1265.048040193074</v>
       </c>
       <c r="T57" s="50">
         <f t="shared" si="40"/>
-        <v>3097.6730374096874</v>
+        <v>3093.5441081608674</v>
       </c>
       <c r="U57" s="50">
         <f t="shared" si="41"/>
-        <v>2969.6016257653591</v>
+        <v>2971.5328426499054</v>
       </c>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
@@ -6037,79 +6031,79 @@
     <row r="58" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B58" s="60">
         <f t="shared" si="23"/>
-        <v>561948.59784913051</v>
+        <v>561583.38410999998</v>
       </c>
       <c r="C58" s="53">
         <f t="shared" si="24"/>
-        <v>0.49951485990338168</v>
+        <v>0.49919022222222226</v>
       </c>
       <c r="D58" s="55">
         <f t="shared" si="25"/>
-        <v>168584.57935473914</v>
+        <v>168475.01523299998</v>
       </c>
       <c r="E58" s="53">
         <f t="shared" si="26"/>
-        <v>0.29970891594202898</v>
+        <v>0.29951413333333332</v>
       </c>
       <c r="F58" s="55">
         <f t="shared" si="27"/>
-        <v>28097.429892456523</v>
+        <v>28079.169205500002</v>
       </c>
       <c r="G58" s="53">
         <f t="shared" si="28"/>
-        <v>0.12487871497584542</v>
+        <v>0.12479755555555556</v>
       </c>
       <c r="H58" s="55">
         <f t="shared" si="29"/>
-        <v>30907.172881702179</v>
+        <v>30887.086126050006</v>
       </c>
       <c r="I58" s="53">
         <f t="shared" si="30"/>
-        <v>0.27473317294685995</v>
+        <v>0.27455462222222227</v>
       </c>
       <c r="J58" s="55">
         <f t="shared" si="31"/>
-        <v>179823.55131172176</v>
+        <v>179706.68291520001</v>
       </c>
       <c r="K58" s="53">
         <f t="shared" si="32"/>
-        <v>0.79922377584541071</v>
+        <v>0.79870435555555563</v>
       </c>
       <c r="L58" s="54">
         <f t="shared" si="33"/>
-        <v>969361.33128975006</v>
+        <v>968731.33758975007</v>
       </c>
       <c r="N58" s="51">
         <f t="shared" si="36"/>
-        <v>0.64624735</v>
+        <v>0.64582735000000002</v>
       </c>
       <c r="O58" s="43">
         <f t="shared" si="42"/>
-        <v>530628.97499999998</v>
+        <v>531258.97499999998</v>
       </c>
       <c r="P58" s="45">
         <f t="shared" si="35"/>
-        <v>969371.02500000002</v>
+        <v>968741.02500000002</v>
       </c>
       <c r="Q58" s="50">
         <f t="shared" si="37"/>
-        <v>4859.6856869972635</v>
+        <v>4849.4060767244728</v>
       </c>
       <c r="R58" s="50">
         <f t="shared" si="38"/>
-        <v>3736.4644377775508</v>
+        <v>3730.6738723917438</v>
       </c>
       <c r="S58" s="50">
         <f t="shared" si="39"/>
-        <v>1342.8540534550937</v>
+        <v>1342.1234854490674</v>
       </c>
       <c r="T58" s="50">
         <f t="shared" si="40"/>
-        <v>3640.465063755586</v>
+        <v>3635.0023832211177</v>
       </c>
       <c r="U58" s="50">
         <f t="shared" si="41"/>
-        <v>2757.4872239249762</v>
+        <v>2759.2804967463403</v>
       </c>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
@@ -6124,79 +6118,79 @@
     <row r="59" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B59" s="60">
         <f t="shared" si="23"/>
-        <v>602087.78340978257</v>
+        <v>601696.48297500005</v>
       </c>
       <c r="C59" s="53">
         <f t="shared" si="24"/>
-        <v>0.53519449275362319</v>
+        <v>0.53484666666666669</v>
       </c>
       <c r="D59" s="55">
         <f t="shared" si="25"/>
-        <v>180626.33502293477</v>
+        <v>180508.9448925</v>
       </c>
       <c r="E59" s="53">
         <f t="shared" si="26"/>
-        <v>0.32111669565217388</v>
+        <v>0.32090800000000003</v>
       </c>
       <c r="F59" s="55">
         <f t="shared" si="27"/>
-        <v>30104.389170489132</v>
+        <v>30084.824148750002</v>
       </c>
       <c r="G59" s="53">
         <f t="shared" si="28"/>
-        <v>0.1337986231884058</v>
+        <v>0.13371166666666667</v>
       </c>
       <c r="H59" s="55">
         <f t="shared" si="29"/>
-        <v>33114.828087538044</v>
+        <v>33093.306563625003</v>
       </c>
       <c r="I59" s="53">
         <f t="shared" si="30"/>
-        <v>0.29435697101449276</v>
+        <v>0.29416566666666671</v>
       </c>
       <c r="J59" s="55">
         <f t="shared" si="31"/>
-        <v>192668.09069113043</v>
+        <v>192542.87455200002</v>
       </c>
       <c r="K59" s="53">
         <f t="shared" si="32"/>
-        <v>0.85631118840579712</v>
+        <v>0.85575466666666677</v>
       </c>
       <c r="L59" s="54">
         <f t="shared" si="33"/>
-        <v>1038601.4263818749</v>
+        <v>1037926.433131875</v>
       </c>
       <c r="N59" s="51">
         <f t="shared" si="36"/>
-        <v>0.69240787500000001</v>
+        <v>0.69195787500000006</v>
       </c>
       <c r="O59" s="43">
         <f t="shared" si="42"/>
-        <v>461388.1875</v>
+        <v>462063.18749999988</v>
       </c>
       <c r="P59" s="45">
         <f t="shared" si="35"/>
-        <v>1038611.8125</v>
+        <v>1037936.8125000001</v>
       </c>
       <c r="Q59" s="50">
         <f t="shared" si="37"/>
-        <v>6201.6621886766416</v>
+        <v>6186.2465198325563</v>
       </c>
       <c r="R59" s="50">
         <f t="shared" si="38"/>
-        <v>4449.5964879945486</v>
+        <v>4441.8436573491754</v>
       </c>
       <c r="S59" s="50">
         <f t="shared" si="39"/>
-        <v>1426.528839608369</v>
+        <v>1425.6797253993479</v>
       </c>
       <c r="T59" s="50">
         <f t="shared" si="40"/>
-        <v>4309.9043464700226</v>
+        <v>4302.66055482301</v>
       </c>
       <c r="U59" s="50">
         <f t="shared" si="41"/>
-        <v>2573.6547423299785</v>
+        <v>2575.3284636299177</v>
       </c>
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
@@ -6211,79 +6205,79 @@
     <row r="60" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B60" s="60">
         <f t="shared" si="23"/>
-        <v>642226.96897043474</v>
+        <v>641809.58184000012</v>
       </c>
       <c r="C60" s="53">
         <f t="shared" si="24"/>
-        <v>0.57087412560386475</v>
+        <v>0.57050311111111118</v>
       </c>
       <c r="D60" s="55">
         <f t="shared" si="25"/>
-        <v>192668.09069113043</v>
+        <v>192542.87455199999</v>
       </c>
       <c r="E60" s="53">
         <f t="shared" si="26"/>
-        <v>0.34252447536231884</v>
+        <v>0.34230186666666668</v>
       </c>
       <c r="F60" s="55">
         <f t="shared" si="27"/>
-        <v>32111.348448521741</v>
+        <v>32090.479092000005</v>
       </c>
       <c r="G60" s="53">
         <f t="shared" si="28"/>
-        <v>0.14271853140096619</v>
+        <v>0.1426257777777778</v>
       </c>
       <c r="H60" s="55">
         <f t="shared" si="29"/>
-        <v>35322.483293373916</v>
+        <v>35299.527001200004</v>
       </c>
       <c r="I60" s="53">
         <f t="shared" si="30"/>
-        <v>0.31398076908212563</v>
+        <v>0.31377671111111116</v>
       </c>
       <c r="J60" s="55">
         <f t="shared" si="31"/>
-        <v>205512.63007053913</v>
+        <v>205379.06618880003</v>
       </c>
       <c r="K60" s="53">
         <f t="shared" si="32"/>
-        <v>0.91339860096618364</v>
+        <v>0.91280497777777792</v>
       </c>
       <c r="L60" s="54">
         <f t="shared" si="33"/>
-        <v>1107841.5214740001</v>
+        <v>1107121.5286740002</v>
       </c>
       <c r="N60" s="51">
         <f t="shared" si="36"/>
-        <v>0.73856840000000001</v>
+        <v>0.73808840000000009</v>
       </c>
       <c r="O60" s="43">
         <f t="shared" si="42"/>
-        <v>392147.39999999991</v>
+        <v>392867.39999999991</v>
       </c>
       <c r="P60" s="45">
         <f t="shared" si="35"/>
-        <v>1107852.6000000001</v>
+        <v>1107132.6000000001</v>
       </c>
       <c r="Q60" s="50">
         <f t="shared" si="37"/>
-        <v>8109.6733426250912</v>
+        <v>8085.9604325751425</v>
       </c>
       <c r="R60" s="50">
         <f t="shared" si="38"/>
-        <v>5344.9702028715783</v>
+        <v>5334.5429691035642</v>
       </c>
       <c r="S60" s="50">
         <f t="shared" si="39"/>
-        <v>1517.3583936326488</v>
+        <v>1516.3746466706866</v>
       </c>
       <c r="T60" s="50">
         <f t="shared" si="40"/>
-        <v>5141.8397390785349</v>
+        <v>5132.2022009093434</v>
       </c>
       <c r="U60" s="50">
         <f t="shared" si="41"/>
-        <v>2412.8013209343544</v>
+        <v>2414.3704346530476</v>
       </c>
       <c r="V60" s="41"/>
       <c r="W60" s="41"/>
@@ -6298,79 +6292,79 @@
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B61" s="60">
         <f t="shared" si="23"/>
-        <v>682366.15453108703</v>
+        <v>681922.68070500018</v>
       </c>
       <c r="C61" s="53">
         <f t="shared" si="24"/>
-        <v>0.60655375845410631</v>
+        <v>0.60615955555555567</v>
       </c>
       <c r="D61" s="55">
         <f t="shared" si="25"/>
-        <v>204709.8463593261</v>
+        <v>204576.80421150001</v>
       </c>
       <c r="E61" s="53">
         <f t="shared" si="26"/>
-        <v>0.3639322550724638</v>
+        <v>0.36369573333333338</v>
       </c>
       <c r="F61" s="55">
         <f t="shared" si="27"/>
-        <v>34118.307726554347</v>
+        <v>34096.134035250005</v>
       </c>
       <c r="G61" s="53">
         <f t="shared" si="28"/>
-        <v>0.15163843961352658</v>
+        <v>0.15153988888888892</v>
       </c>
       <c r="H61" s="55">
         <f t="shared" si="29"/>
-        <v>37530.138499209788</v>
+        <v>37505.747438775012</v>
       </c>
       <c r="I61" s="53">
         <f t="shared" si="30"/>
-        <v>0.3336045671497585</v>
+        <v>0.33338775555555566</v>
       </c>
       <c r="J61" s="55">
         <f t="shared" si="31"/>
-        <v>218357.16944994786</v>
+        <v>218215.25782560007</v>
       </c>
       <c r="K61" s="53">
         <f>C61*cutratio_lndscp</f>
-        <v>0.97048601352657016</v>
+        <v>0.96985528888888917</v>
       </c>
       <c r="L61" s="54">
         <f t="shared" si="33"/>
-        <v>1177081.6165661251</v>
+        <v>1176316.6242161253</v>
       </c>
       <c r="N61" s="51">
         <f t="shared" si="36"/>
-        <v>0.78472892500000002</v>
+        <v>0.78421892500000012</v>
       </c>
       <c r="O61" s="43">
         <f t="shared" si="42"/>
-        <v>322906.61250000005</v>
+        <v>323671.61249999981</v>
       </c>
       <c r="P61" s="45">
         <f t="shared" si="35"/>
-        <v>1177093.3875</v>
+        <v>1176328.3875000002</v>
       </c>
       <c r="Q61" s="50">
         <f t="shared" si="37"/>
-        <v>10912.454696112003</v>
+        <v>10874.826300487372</v>
       </c>
       <c r="R61" s="50">
         <f t="shared" si="38"/>
-        <v>6479.6439533178955</v>
+        <v>6465.5406970925205</v>
       </c>
       <c r="S61" s="50">
         <f t="shared" si="39"/>
-        <v>1616.0798446513866</v>
+        <v>1614.9431152142658</v>
       </c>
       <c r="T61" s="50">
         <f t="shared" si="40"/>
-        <v>6184.0068588938593</v>
+        <v>6171.1298270452899</v>
       </c>
       <c r="U61" s="50">
         <f t="shared" si="41"/>
-        <v>2270.8718314676275</v>
+        <v>2272.3486443793386</v>
       </c>
       <c r="V61" s="41"/>
       <c r="W61" s="41"/>
@@ -6385,79 +6379,79 @@
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B62" s="60">
         <f>C62*base_use_sf</f>
-        <v>722505.3400917392</v>
+        <v>722035.77957000013</v>
       </c>
       <c r="C62" s="53">
         <f>N62/(size_sf+cutratio_mf*size_mf+cutratio_ind*size_ind+cutratio_com*size_com+cutratio_lndscp*size_lndscp)</f>
-        <v>0.64223339130434787</v>
+        <v>0.64181600000000016</v>
       </c>
       <c r="D62" s="55">
         <f t="shared" si="25"/>
-        <v>216751.60202752173</v>
+        <v>216610.73387100006</v>
       </c>
       <c r="E62" s="53">
         <f t="shared" si="26"/>
-        <v>0.3853400347826087</v>
+        <v>0.38508960000000009</v>
       </c>
       <c r="F62" s="55">
         <f t="shared" si="27"/>
-        <v>36125.26700458696</v>
+        <v>36101.788978500008</v>
       </c>
       <c r="G62" s="53">
         <f t="shared" si="28"/>
-        <v>0.16055834782608697</v>
+        <v>0.16045400000000004</v>
       </c>
       <c r="H62" s="55">
         <f t="shared" si="29"/>
-        <v>39737.79370504566</v>
+        <v>39711.967876350012</v>
       </c>
       <c r="I62" s="53">
         <f t="shared" si="30"/>
-        <v>0.35322836521739137</v>
+        <v>0.35299880000000011</v>
       </c>
       <c r="J62" s="55">
         <f t="shared" si="31"/>
-        <v>231201.70882935656</v>
+        <v>231051.44946240008</v>
       </c>
       <c r="K62" s="53">
         <f t="shared" ref="K62" si="43">C62*cutratio_lndscp</f>
-        <v>1.0275734260869567</v>
+        <v>1.0269056000000003</v>
       </c>
       <c r="L62" s="54">
         <f>J62+H62+F62+D62+B62</f>
-        <v>1246321.7116582501</v>
+        <v>1245511.7197582503</v>
       </c>
       <c r="N62" s="51">
         <f>($N$63/20)+N61</f>
-        <v>0.83088945000000003</v>
+        <v>0.83034945000000016</v>
       </c>
       <c r="O62" s="43">
         <f t="shared" si="42"/>
-        <v>253665.82499999995</v>
+        <v>254475.82499999972</v>
       </c>
       <c r="P62" s="45">
         <f t="shared" si="35"/>
-        <v>1246334.175</v>
+        <v>1245524.1750000003</v>
       </c>
       <c r="Q62" s="50">
         <f t="shared" si="37"/>
-        <v>15191.583607065719</v>
+        <v>15129.550814840595</v>
       </c>
       <c r="R62" s="50">
         <f t="shared" si="38"/>
-        <v>7931.8233375078134</v>
+        <v>7912.6204469091936</v>
       </c>
       <c r="S62" s="50">
         <f t="shared" si="39"/>
-        <v>1723.5177799153957</v>
+        <v>1722.207114752877</v>
       </c>
       <c r="T62" s="50">
         <f t="shared" si="40"/>
-        <v>7500.5577141783479</v>
+        <v>7483.2635587477707</v>
       </c>
       <c r="U62" s="50">
         <f t="shared" si="41"/>
-        <v>2144.7122852749817</v>
+        <v>2146.1070530249308</v>
       </c>
       <c r="V62" s="41"/>
       <c r="W62" s="41"/>
@@ -6472,79 +6466,79 @@
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B63" s="75">
         <f>shortage_dist_sf_actual*base_use_sf</f>
-        <v>802783.71121304354</v>
+        <v>802261.97730000003</v>
       </c>
       <c r="C63" s="76">
         <f>Total_actual_shortage/(size_sf+cutratio_mf*size_mf+cutratio_ind*size_ind+cutratio_com*size_com+cutratio_lndscp*size_lndscp)</f>
-        <v>0.71359265700483099</v>
+        <v>0.71312888888888892</v>
       </c>
       <c r="D63" s="77">
         <f>shortage_dist_mf_actual*base_use_mf</f>
-        <v>240835.11336391306</v>
+        <v>240678.59318999999</v>
       </c>
       <c r="E63" s="76">
         <f>shortage_dist_sf_actual*cutratio_mf</f>
-        <v>0.42815559420289856</v>
+        <v>0.42787733333333333</v>
       </c>
       <c r="F63" s="77">
         <f>shortage_dist_ind_actual*base_use_ind</f>
-        <v>40139.185560652179</v>
+        <v>40113.098865</v>
       </c>
       <c r="G63" s="76">
         <f>shortage_dist_sf_actual*cutratio_ind</f>
-        <v>0.17839816425120775</v>
+        <v>0.17828222222222223</v>
       </c>
       <c r="H63" s="77">
         <f>shortage_dist_comm_actual*base_use_comm</f>
-        <v>44153.104116717397</v>
+        <v>44124.408751500006</v>
       </c>
       <c r="I63" s="76">
         <f>shortage_dist_sf_actual*cutratio_com</f>
-        <v>0.39247596135265705</v>
+        <v>0.39222088888888895</v>
       </c>
       <c r="J63" s="77">
         <f>shortage_dist_lndscp_actual*base_use_lndscp</f>
-        <v>256890.78758817396</v>
+        <v>256723.83273600004</v>
       </c>
       <c r="K63" s="76">
         <f>shortage_dist_sf_actual*cutratio_lndscp</f>
-        <v>1.1417482512077297</v>
+        <v>1.1410062222222224</v>
       </c>
       <c r="L63" s="78">
         <f>J63+H63+F63+D63+B63</f>
-        <v>1384801.9018425001</v>
+        <v>1383901.9108425002</v>
       </c>
       <c r="N63" s="52">
         <f>Total_actual_shortage</f>
-        <v>0.92321050000000004</v>
+        <v>0.9226105</v>
       </c>
       <c r="O63" s="44">
         <f t="shared" si="42"/>
-        <v>115184.25</v>
+        <v>116084.25</v>
       </c>
       <c r="P63" s="46">
         <f>base_use_total-O63</f>
-        <v>1384815.75</v>
+        <v>1383915.75</v>
       </c>
       <c r="Q63" s="50">
         <f t="shared" si="37"/>
-        <v>27885.97696420383</v>
+        <v>27904.112012719455</v>
       </c>
       <c r="R63" s="50">
         <f t="shared" si="38"/>
-        <v>12266.369957981738</v>
+        <v>12229.897699905789</v>
       </c>
       <c r="S63" s="50">
         <f t="shared" si="39"/>
-        <v>1968.3505169362882</v>
+        <v>1966.6166647308698</v>
       </c>
       <c r="T63" s="50">
         <f t="shared" si="40"/>
-        <v>11337.348652225517</v>
+        <v>11305.562118565322</v>
       </c>
       <c r="U63" s="50">
         <f t="shared" si="41"/>
-        <v>1930.2410567474833</v>
+        <v>1931.496347722438</v>
       </c>
       <c r="V63" s="41"/>
       <c r="W63" s="41"/>
@@ -6592,7 +6586,7 @@
       <c r="D65" s="8"/>
       <c r="E65" s="63">
         <f>E63/$C$38</f>
-        <v>0.59999700000833334</v>
+        <v>0.59999700000833323</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="63">
@@ -6607,7 +6601,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="63">
         <f>K63/$C$38</f>
-        <v>1.5999920000222225</v>
+        <v>1.5999920000222223</v>
       </c>
       <c r="L65" s="47"/>
       <c r="Q65" s="50"/>
@@ -6650,15 +6644,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8EEA600E73B5F498B2D4BF2CB2B4B35" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fccf8eb4bf7c77058f7e1a7c435dd29e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="C8A5693F-CB4F-4469-AD8F-971CCDC8DC5C" xmlns:ns3="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c" xmlns:ns4="8ca2015b-1270-41a8-9966-06a19c2d4f3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba32016117279a10a3abb736afd6333a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="C8A5693F-CB4F-4469-AD8F-971CCDC8DC5C"/>
@@ -6888,6 +6873,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB85D8AC-4DEA-4D66-8105-40ECD4B542B0}">
   <ds:schemaRefs>
@@ -6907,14 +6901,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEF16BB-3AEF-4926-94B8-DF9556B55AE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E83BFB-7FED-44D2-9197-89E5DC1C10DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6932,4 +6918,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEF16BB-3AEF-4926-94B8-DF9556B55AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CaUWMET/tests/CaUWMET_CPED example for Python test.xlsx
+++ b/CaUWMET/tests/CaUWMET_CPED example for Python test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KD012200\GitHub_Repos\California-Urban-Water-Management-Economic-Tool\CaUWMET\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1D6D76-B7F5-4B1D-9F30-D2F8ED80F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107EF29-3F66-485E-8399-9653701572A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <definedName name="use_2" localSheetId="0">'CPED Calc_trial'!$I$10</definedName>
     <definedName name="use_3" localSheetId="0">'CPED Calc_trial'!$H$10</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1" iterateCount="1000"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1179,61 +1179,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49058502.392924607</c:v>
+                  <c:v>49358404.165062651</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107548140.87291643</c:v>
+                  <c:v>109128127.49468267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177781681.71136856</c:v>
+                  <c:v>182510508.36343467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262772154.91537166</c:v>
+                  <c:v>274091646.10037959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>366491430.72424567</c:v>
+                  <c:v>390661709.97357905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>494245158.94430643</c:v>
+                  <c:v>542678230.74601614</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>653228433.90731168</c:v>
+                  <c:v>747027886.28187668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>853371068.88973713</c:v>
+                  <c:v>1032585067.1571265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1108665366.9296954</c:v>
+                  <c:v>1452276952.3033276</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1439338897.8280289</c:v>
+                  <c:v>2111735995.912674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1875608810.4274888</c:v>
+                  <c:v>3245209065.149663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2464680250.0551219</c:v>
+                  <c:v>5446191401.7889786</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3136169175.4372315</c:v>
+                  <c:v>6811179261.5289164</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3997692702.3955197</c:v>
+                  <c:v>7562346275.6050835</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5205177019.6790686</c:v>
+                  <c:v>8621644976.4583035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6942461766.0623312</c:v>
+                  <c:v>10159289752.628944</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9520867655.2637615</c:v>
+                  <c:v>12467547337.625431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13493246564.177263</c:v>
+                  <c:v>16072367376.036104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26403482129.485783</c:v>
+                  <c:v>27784752608.754646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,8 +1823,8 @@
   </sheetPr>
   <dimension ref="A1:BA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="AF16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AZ38" sqref="AZ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2145,16 +2145,16 @@
         <v>-0.2</v>
       </c>
       <c r="R9" s="102">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
       <c r="S9" s="102">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="T9" s="102">
-        <v>-0.11</v>
+        <v>-0.2</v>
       </c>
       <c r="U9" s="103">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
@@ -2204,19 +2204,19 @@
       </c>
       <c r="R10" s="131">
         <f>base_use_mf/(p1_base^elasticity_mf)</f>
-        <v>1223679.7878046185</v>
+        <v>2054474.9728149578</v>
       </c>
       <c r="S10" s="13">
         <f>base_use_ind/(p1_base^elasticity_ind)</f>
-        <v>430001.04479625466</v>
+        <v>821789.98912598309</v>
       </c>
       <c r="T10" s="13">
         <f>base_use_comm/(p1_base^elasticity_comm)</f>
-        <v>229386.91925479213</v>
+        <v>410894.99456299155</v>
       </c>
       <c r="U10" s="34">
         <f>base_use_lndscp/(p1_base^elasticity_lndscp)</f>
-        <v>3001535.7319248011</v>
+        <v>821789.98912598309</v>
       </c>
       <c r="V10" s="132">
         <f>size_sf*base_use_total</f>
@@ -2764,27 +2764,27 @@
       </c>
       <c r="AF20" s="64">
         <f t="shared" ref="AF20:AF37" si="16">IF(shortage_MF&lt;=lowerbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-lowerbound_MF)*EXP((LN((base_use_mf*(1-lowerbound_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)))), IF(shortage_MF&gt;=upperbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-upperbound_MF))*EXP((LN((base_use_mf*(1-upperbound_MF))/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)), ((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf-shortage_af_MF)*EXP((LN((base_use_mf-shortage_af_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))))</f>
-        <v>8568471.8775434792</v>
+        <v>8259052.3837222308</v>
       </c>
       <c r="AL20" s="64">
         <f t="shared" ref="AL20:AL37" si="17">IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>1363739.5678167623</v>
+        <v>1333261.4615133703</v>
       </c>
       <c r="AR20" s="64">
         <f t="shared" ref="AR20:AR37" si="18">IF(shortage_COM&lt;=lowerbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-lowerbound_COM)*EXP((LN((base_use_comm*(1-lowerbound_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)))), IF(shortage_COM&gt;=upperbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-upperbound_COM))*EXP((LN((base_use_comm*(1-upperbound_COM))/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)), ((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm-shortage_af_COM)*EXP((LN((base_use_comm-shortage_af_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))))</f>
-        <v>1570797.6915409286</v>
+        <v>1507214.2319882512</v>
       </c>
       <c r="AX20" s="64">
         <f t="shared" ref="AX20:AX37" si="19">IF(shortage_LNDSCP&lt;=$U$14,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-low_bound_lndscp)*EXP((LN((base_use_lndscp*(1-low_bound_lndscp)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)))), IF(shortage_LNDSCP&gt;=upperbound_LNDSCP,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-upperbound_LNDSCP))*EXP((LN((base_use_lndscp*(1-upperbound_LNDSCP))/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)), ((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)*EXP((LN((base_use_lndscp-shortage_af_LNDSCP)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))))</f>
-        <v>8980887.9600099027</v>
+        <v>9684270.7918252647</v>
       </c>
       <c r="AY20" s="48">
         <f t="shared" ref="AY20:AY38" si="20">AZ20/P45</f>
-        <v>708.98105456093754</v>
+        <v>713.31515903424884</v>
       </c>
       <c r="AZ20" s="14">
         <f t="shared" si="14"/>
-        <v>49058502.392924607</v>
+        <v>49358404.165062651</v>
       </c>
       <c r="BA20" s="65">
         <f t="shared" si="15"/>
@@ -2855,27 +2855,27 @@
       </c>
       <c r="AF21" s="64">
         <f t="shared" si="16"/>
-        <v>18849960.653162234</v>
+        <v>17472358.44198361</v>
       </c>
       <c r="AL21" s="64">
         <f t="shared" si="17"/>
-        <v>2855834.6239179652</v>
+        <v>2727853.535294205</v>
       </c>
       <c r="AR21" s="64">
         <f t="shared" si="18"/>
-        <v>3454991.8274118621</v>
+        <v>3173011.0553799421</v>
       </c>
       <c r="AX21" s="64">
         <f t="shared" si="19"/>
-        <v>19430476.255549997</v>
+        <v>22798026.949150555</v>
       </c>
       <c r="AY21" s="48">
         <f t="shared" si="20"/>
-        <v>777.12924990496322</v>
+        <v>788.5460332009568</v>
       </c>
       <c r="AZ21" s="14">
         <f t="shared" si="14"/>
-        <v>107548140.87291643</v>
+        <v>109128127.49468267</v>
       </c>
       <c r="BA21" s="65">
         <f t="shared" si="15"/>
@@ -2946,27 +2946,27 @@
       </c>
       <c r="AF22" s="64">
         <f t="shared" si="16"/>
-        <v>31237333.955084987</v>
+        <v>27775334.673295721</v>
       </c>
       <c r="AL22" s="64">
         <f t="shared" si="17"/>
-        <v>4489699.5597629938</v>
+        <v>4187193.0657581463</v>
       </c>
       <c r="AR22" s="64">
         <f t="shared" si="18"/>
-        <v>5723523.8166936468</v>
+        <v>5017840.9574663974</v>
       </c>
       <c r="AX22" s="64">
         <f t="shared" si="19"/>
-        <v>31708487.68894954</v>
+        <v>40907502.976036981</v>
       </c>
       <c r="AY22" s="48">
         <f t="shared" si="20"/>
-        <v>856.41861609648095</v>
+        <v>879.19855122892966</v>
       </c>
       <c r="AZ22" s="14">
         <f t="shared" si="14"/>
-        <v>177781681.71136856</v>
+        <v>182510508.36343467</v>
       </c>
       <c r="BA22" s="65">
         <f t="shared" si="15"/>
@@ -3037,27 +3037,27 @@
       </c>
       <c r="AF23" s="64">
         <f t="shared" si="16"/>
-        <v>46225693.334588774</v>
+        <v>39326356.824808732</v>
       </c>
       <c r="AL23" s="64">
         <f>IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>6280292.7244417835</v>
+        <v>5714921.0592027083</v>
       </c>
       <c r="AR23" s="64">
         <f t="shared" si="18"/>
-        <v>8465384.4106408022</v>
+        <v>7065298.4246141613</v>
       </c>
       <c r="AX23" s="64">
         <f t="shared" si="19"/>
-        <v>46296418.573757976</v>
+        <v>66480703.919811666</v>
       </c>
       <c r="AY23" s="48">
         <f t="shared" si="20"/>
-        <v>949.37916168441518</v>
+        <v>990.27576678847572</v>
       </c>
       <c r="AZ23" s="14">
         <f t="shared" si="14"/>
-        <v>262772154.91537166</v>
+        <v>274091646.10037959</v>
       </c>
       <c r="BA23" s="65">
         <f t="shared" si="15"/>
@@ -3128,27 +3128,27 @@
       </c>
       <c r="AF24" s="64">
         <f t="shared" si="16"/>
-        <v>64442295.962985493</v>
+        <v>52311318.345438704</v>
       </c>
       <c r="AL24" s="64">
         <f t="shared" si="17"/>
-        <v>8244310.7907152753</v>
+        <v>7314919.6494385675</v>
       </c>
       <c r="AR24" s="64">
         <f t="shared" si="18"/>
-        <v>11792735.863012906</v>
+        <v>9342686.6750401706</v>
       </c>
       <c r="AX24" s="64">
         <f t="shared" si="19"/>
-        <v>63852005.849980861</v>
+        <v>103532703.04611048</v>
       </c>
       <c r="AY24" s="48">
         <f t="shared" si="20"/>
-        <v>1059.2882716285169</v>
+        <v>1129.148822747567</v>
       </c>
       <c r="AZ24" s="14">
         <f t="shared" si="14"/>
-        <v>366491430.72424567</v>
+        <v>390661709.97357905</v>
       </c>
       <c r="BA24" s="65">
         <f t="shared" si="15"/>
@@ -3222,27 +3222,27 @@
       </c>
       <c r="AF25" s="64">
         <f t="shared" si="16"/>
-        <v>86686255.531868875</v>
+        <v>66949232.775843337</v>
       </c>
       <c r="AL25" s="64">
         <f t="shared" si="17"/>
-        <v>10400409.727604901</v>
+        <v>8991330.5217283443</v>
       </c>
       <c r="AR25" s="64">
         <f t="shared" si="18"/>
-        <v>15847645.195009496</v>
+        <v>11881699.115892529</v>
       </c>
       <c r="AX25" s="64">
         <f t="shared" si="19"/>
-        <v>85295024.524293244</v>
+        <v>158840144.36702204</v>
       </c>
       <c r="AY25" s="48">
         <f t="shared" si="20"/>
-        <v>1190.4509816783918</v>
+        <v>1307.1080633485481</v>
       </c>
       <c r="AZ25" s="14">
         <f t="shared" si="14"/>
-        <v>494245158.94430643</v>
+        <v>542678230.74601614</v>
       </c>
       <c r="BA25" s="65">
         <f t="shared" si="15"/>
@@ -3313,27 +3313,27 @@
       </c>
       <c r="AF26" s="64">
         <f t="shared" si="16"/>
-        <v>113981570.28413814</v>
+        <v>83499152.601778314</v>
       </c>
       <c r="AL26" s="64">
         <f t="shared" si="17"/>
-        <v>12769456.320098592</v>
+        <v>10748574.935651504</v>
       </c>
       <c r="AR26" s="64">
         <f t="shared" si="18"/>
-        <v>20810987.255893812</v>
+        <v>14719244.957267608</v>
       </c>
       <c r="AX26" s="64">
         <f t="shared" si="19"/>
-        <v>111947219.78011999</v>
+        <v>244341713.52011821</v>
       </c>
       <c r="AY26" s="48">
         <f t="shared" si="20"/>
-        <v>1348.6131319922406</v>
+        <v>1542.2654084085616</v>
       </c>
       <c r="AZ26" s="14">
         <f t="shared" si="14"/>
-        <v>653228433.90731168</v>
+        <v>747027886.28187668</v>
       </c>
       <c r="BA26" s="65">
         <f t="shared" si="15"/>
@@ -3404,27 +3404,27 @@
       </c>
       <c r="AF27" s="64">
         <f t="shared" si="16"/>
-        <v>147648447.96805242</v>
+        <v>102268757.44009249</v>
       </c>
       <c r="AL27" s="64">
         <f t="shared" si="17"/>
-        <v>15374814.80523912</v>
+        <v>12591375.502574869</v>
       </c>
       <c r="AR27" s="64">
         <f t="shared" si="18"/>
-        <v>26914288.915903799</v>
+        <v>17898453.677396886</v>
       </c>
       <c r="AX27" s="64">
         <f t="shared" si="19"/>
-        <v>145770001.96998942</v>
+        <v>382162965.30650985</v>
       </c>
       <c r="AY27" s="48">
         <f t="shared" si="20"/>
-        <v>1541.5878258660928</v>
+        <v>1865.3322414264139</v>
       </c>
       <c r="AZ27" s="14">
         <f t="shared" si="14"/>
-        <v>853371068.88973713</v>
+        <v>1032585067.1571265</v>
       </c>
       <c r="BA27" s="65">
         <f t="shared" si="15"/>
@@ -3495,27 +3495,27 @@
       </c>
       <c r="AF28" s="64">
         <f t="shared" si="16"/>
-        <v>189399946.21605444</v>
+        <v>123625071.31478889</v>
       </c>
       <c r="AL28" s="64">
         <f t="shared" si="17"/>
-        <v>18242673.930189677</v>
+        <v>14524779.890244223</v>
       </c>
       <c r="AR28" s="64">
         <f t="shared" si="18"/>
-        <v>34455586.870899804</v>
+        <v>21469902.443158783</v>
       </c>
       <c r="AX28" s="64">
         <f t="shared" si="19"/>
-        <v>189788153.24580124</v>
+        <v>615878191.98838544</v>
       </c>
       <c r="AY28" s="48">
         <f t="shared" si="20"/>
-        <v>1780.2390177287334</v>
+        <v>2331.9931984512909</v>
       </c>
       <c r="AZ28" s="14">
         <f t="shared" si="14"/>
-        <v>1108665366.9296954</v>
+        <v>1452276952.3033276</v>
       </c>
       <c r="BA28" s="65">
         <f t="shared" si="15"/>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="AF29" s="64">
         <f t="shared" si="16"/>
-        <v>241473925.35487264</v>
+        <v>148007911.98276496</v>
       </c>
       <c r="AL29" s="64">
         <f t="shared" si="17"/>
-        <v>21402420.601556301</v>
+        <v>16554186.645856433</v>
       </c>
       <c r="AR29" s="64">
         <f t="shared" si="18"/>
-        <v>43820801.319632061</v>
+        <v>25493122.854143783</v>
       </c>
       <c r="AX29" s="64">
         <f t="shared" si="19"/>
-        <v>248890352.9232299</v>
+        <v>1037929376.8011708</v>
       </c>
       <c r="AY29" s="48">
         <f t="shared" si="20"/>
-        <v>2080.0961298807811</v>
+        <v>3051.8273903778813</v>
       </c>
       <c r="AZ29" s="14">
         <f t="shared" si="14"/>
-        <v>1439338897.8280289</v>
+        <v>2111735995.912674</v>
       </c>
       <c r="BA29" s="65">
         <f t="shared" si="15"/>
@@ -3677,27 +3677,27 @@
       </c>
       <c r="AF30" s="64">
         <f t="shared" si="16"/>
-        <v>306814681.94322813</v>
+        <v>175946868.53700119</v>
       </c>
       <c r="AL30" s="64">
         <f t="shared" si="17"/>
-        <v>24887067.309836023</v>
+        <v>18685373.350080341</v>
       </c>
       <c r="AR30" s="64">
         <f t="shared" si="18"/>
-        <v>55512746.12551827</v>
+        <v>30038459.458726913</v>
       </c>
       <c r="AX30" s="64">
         <f t="shared" si="19"/>
-        <v>331454043.43875968</v>
+        <v>1863598092.1937079</v>
       </c>
       <c r="AY30" s="48">
         <f t="shared" si="20"/>
-        <v>2464.1657825925381</v>
+        <v>4263.5399723241344</v>
       </c>
       <c r="AZ30" s="14">
         <f t="shared" si="14"/>
-        <v>1875608810.4274888</v>
+        <v>3245209065.149663</v>
       </c>
       <c r="BA30" s="65">
         <f t="shared" si="15"/>
@@ -3768,27 +3768,27 @@
       </c>
       <c r="AF31" s="64">
         <f t="shared" si="16"/>
-        <v>389325110.62179905</v>
+        <v>208082866.37636894</v>
       </c>
       <c r="AL31" s="64">
         <f t="shared" si="17"/>
-        <v>28733741.706567012</v>
+        <v>20924527.338175468</v>
       </c>
       <c r="AR31" s="64">
         <f t="shared" si="18"/>
-        <v>70190793.295484543</v>
+        <v>35189373.707400247</v>
       </c>
       <c r="AX31" s="64">
         <f t="shared" si="19"/>
-        <v>452956861.64701688</v>
+        <v>3658520891.5827789</v>
       </c>
       <c r="AY31" s="48">
         <f t="shared" si="20"/>
-        <v>2968.244574684938</v>
+        <v>6558.9149264673797</v>
       </c>
       <c r="AZ31" s="14">
         <f t="shared" si="14"/>
-        <v>2464680250.0551219</v>
+        <v>5446191401.7889786</v>
       </c>
       <c r="BA31" s="65">
         <f t="shared" si="15"/>
@@ -3859,27 +3859,27 @@
       </c>
       <c r="AF32" s="64">
         <f t="shared" si="16"/>
-        <v>494219946.55014473</v>
+        <v>245195739.06693047</v>
       </c>
       <c r="AL32" s="64">
         <f t="shared" si="17"/>
-        <v>32984248.118405528</v>
+        <v>23278279.250937834</v>
       </c>
       <c r="AR32" s="64">
         <f t="shared" si="18"/>
-        <v>88725523.067535028</v>
+        <v>41045315.18779362</v>
       </c>
       <c r="AX32" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY32" s="48">
         <f t="shared" si="20"/>
-        <v>3486.3940630192396</v>
+        <v>7571.8029261745905</v>
       </c>
       <c r="AZ32" s="14">
         <f t="shared" si="14"/>
-        <v>3136169175.4372315</v>
+        <v>6811179261.5289164</v>
       </c>
       <c r="BA32" s="65">
         <f t="shared" si="15"/>
@@ -3950,27 +3950,27 @@
       </c>
       <c r="AF33" s="64">
         <f t="shared" si="16"/>
-        <v>628525337.4805541</v>
+        <v>288239725.10989016</v>
       </c>
       <c r="AL33" s="64">
         <f t="shared" si="17"/>
-        <v>37685712.442599781</v>
+        <v>25753739.708090439</v>
       </c>
       <c r="AR33" s="64">
         <f t="shared" si="18"/>
-        <v>112274631.67894769</v>
+        <v>47725319.671577126</v>
       </c>
       <c r="AX33" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY33" s="48">
         <f t="shared" si="20"/>
-        <v>4126.6887632796597</v>
+        <v>7806.3652518536455</v>
       </c>
       <c r="AZ33" s="14">
         <f t="shared" si="14"/>
-        <v>3997692702.3955197</v>
+        <v>7562346275.6050835</v>
       </c>
       <c r="BA33" s="65">
         <f t="shared" si="15"/>
@@ -4041,27 +4041,27 @@
       </c>
       <c r="AF34" s="64">
         <f t="shared" si="16"/>
-        <v>801792511.96554291</v>
+        <v>338389503.33337432</v>
       </c>
       <c r="AL34" s="64">
         <f t="shared" si="17"/>
-        <v>42891323.831077576</v>
+        <v>28358539.430361494</v>
       </c>
       <c r="AR34" s="64">
         <f t="shared" si="18"/>
-        <v>142389264.7799747</v>
+        <v>55372544.269987121</v>
       </c>
       <c r="AX34" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY34" s="48">
         <f t="shared" si="20"/>
-        <v>5014.9266862804025</v>
+        <v>8306.5220084949069</v>
       </c>
       <c r="AZ34" s="14">
         <f t="shared" si="14"/>
-        <v>5205177019.6790686</v>
+        <v>8621644976.4583035</v>
       </c>
       <c r="BA34" s="65">
         <f t="shared" si="15"/>
@@ -4132,27 +4132,27 @@
       </c>
       <c r="AF35" s="64">
         <f t="shared" si="16"/>
-        <v>1027128237.6923612</v>
+        <v>397100360.91755426</v>
       </c>
       <c r="AL35" s="64">
         <f t="shared" si="17"/>
-        <v>48661188.894624561</v>
+        <v>31100873.174388409</v>
       </c>
       <c r="AR35" s="64">
         <f t="shared" si="18"/>
-        <v>181164310.16661745</v>
+        <v>64160018.906167388</v>
       </c>
       <c r="AX35" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY35" s="48">
         <f t="shared" si="20"/>
-        <v>6270.668722122653</v>
+        <v>9176.2176930107053</v>
       </c>
       <c r="AZ35" s="14">
         <f t="shared" si="14"/>
-        <v>6942461766.0623312</v>
+        <v>10159289752.628944</v>
       </c>
       <c r="BA35" s="65">
         <f t="shared" si="15"/>
@@ -4223,27 +4223,27 @@
       </c>
       <c r="AF36" s="64">
         <f t="shared" si="16"/>
-        <v>1322699653.3105819</v>
+        <v>466187483.47488219</v>
       </c>
       <c r="AL36" s="64">
         <f t="shared" si="17"/>
-        <v>55063316.915649801</v>
+        <v>33989547.887325898</v>
       </c>
       <c r="AR36" s="64">
         <f t="shared" si="18"/>
-        <v>231452836.70505196</v>
+        <v>74297987.60863702</v>
       </c>
       <c r="AX36" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY36" s="48">
         <f t="shared" si="20"/>
-        <v>8093.715799461449</v>
+        <v>10598.696308028551</v>
       </c>
       <c r="AZ36" s="14">
         <f t="shared" si="14"/>
-        <v>9520867655.2637615</v>
+        <v>12467547337.625431</v>
       </c>
       <c r="BA36" s="65">
         <f t="shared" si="15"/>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="AF37" s="64">
         <f t="shared" si="16"/>
-        <v>1713958521.8476808</v>
+        <v>547931364.47813785</v>
       </c>
       <c r="AG37" s="11" t="s">
         <v>73</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="AL37" s="64">
         <f t="shared" si="17"/>
-        <v>62174757.834079713</v>
+        <v>37034035.536313072</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>73</v>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="AR37" s="64">
         <f t="shared" si="18"/>
-        <v>297175122.05525213</v>
+        <v>86043343.259294197</v>
       </c>
       <c r="AS37" s="11" t="s">
         <v>73</v>
@@ -4410,15 +4410,15 @@
       </c>
       <c r="AX37" s="64">
         <f t="shared" si="19"/>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY37" s="48">
         <f t="shared" si="20"/>
-        <v>10833.387930167843</v>
+        <v>12904.099092284661</v>
       </c>
       <c r="AZ37" s="14">
         <f t="shared" si="14"/>
-        <v>13493246564.177263</v>
+        <v>16072367376.036104</v>
       </c>
       <c r="BA37" s="65">
         <f t="shared" si="15"/>
@@ -4513,59 +4513,59 @@
       </c>
       <c r="Z38">
         <f>elasticity_mf*base_use_mf</f>
-        <v>-67499.324999999997</v>
+        <v>-112498.875</v>
       </c>
       <c r="AA38">
         <f>EXP((LN(base_use_mf/coeff_mf))/elasticity_mf)</f>
-        <v>650.00000000000114</v>
+        <v>650.00000000000057</v>
       </c>
       <c r="AB38">
         <f>elasticity_mf + 1</f>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AC38" s="11">
         <f>(Z38*AA38)/AB38</f>
-        <v>-49857455.965909176</v>
+        <v>-91405335.937500075</v>
       </c>
       <c r="AD38">
         <f>elasticity_mf*(base_use_mf-shortage_af_MF)</f>
-        <v>-38617.749409723176</v>
+        <v>-64362.915682871972</v>
       </c>
       <c r="AE38">
         <f>LN((base_use_mf-shortage_af_MF)/coeff_mf)</f>
-        <v>-1.3356422813261004</v>
+        <v>-1.853800070357275</v>
       </c>
       <c r="AF38" s="144">
         <f>IF(shortage_MF&lt;=lowerbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-lowerbound_MF)*EXP((LN((base_use_mf*(1-lowerbound_MF)/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)))), IF(shortage_MF&gt;=upperbound_MF,((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf*(1-upperbound_MF))*EXP((LN((base_use_mf*(1-upperbound_MF))/coeff_mf))/elasticity_mf))/(elasticity_mf + 1)), ((elasticity_mf*base_use_mf*EXP((LN(base_use_mf/coeff_mf))/elasticity_mf))/(elasticity_mf + 1))-((elasticity_mf*(base_use_mf-shortage_af_MF)*EXP((AE38)/elasticity_mf))/(elasticity_mf + 1))))</f>
-        <v>2943474573.2709417</v>
+        <v>761736871.39212728</v>
       </c>
       <c r="AG38">
         <f>elasticity_ind*base_use_ind</f>
-        <v>-22499.775000000001</v>
+        <v>-44999.55</v>
       </c>
       <c r="AH38">
         <f>EXP((LN(base_use_ind/coeff_ind))/elasticity_ind)</f>
-        <v>649.99999999999932</v>
+        <v>650.00000000000057</v>
       </c>
       <c r="AI38">
         <f>elasticity_ind + 1</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AJ38" s="11">
         <f>(AG38*AH38)/AI38</f>
-        <v>-16249837.499999983</v>
+        <v>-36562134.37500003</v>
       </c>
       <c r="AK38">
         <f>elasticity_ind*(base_use_ind-shortage_af_IND)</f>
-        <v>-18488.445056905995</v>
+        <v>-36976.890113811991</v>
       </c>
       <c r="AL38" s="64">
         <f>IF(shortage_IND&lt;=lowerbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-lowerbound_IND)*EXP((LN((base_use_ind*(1-lowerbound_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)))), IF(shortage_IND&gt;=upperbound_IND,((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind*(1-upperbound_IND))*EXP((LN((base_use_ind*(1-upperbound_IND))/coeff_ind))/elasticity_ind))/(elasticity_ind + 1)), ((elasticity_ind*base_use_ind*EXP((LN(base_use_ind/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))-((elasticity_ind*(base_use_ind-shortage_af_IND)*EXP((LN((base_use_ind-shortage_af_IND)/coeff_ind))/elasticity_ind))/(elasticity_ind + 1))))</f>
-        <v>78887088.701905936</v>
+        <v>43632016.451510206</v>
       </c>
       <c r="AM38">
         <f>elasticity_comm*base_use_comm</f>
-        <v>-12374.876249999999</v>
+        <v>-22499.775000000001</v>
       </c>
       <c r="AN38">
         <f>EXP((LN(base_use_comm/coeff_comm))/elasticity_comm)</f>
@@ -4573,23 +4573,23 @@
       </c>
       <c r="AO38">
         <f>elasticity_comm + 1</f>
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AP38" s="11">
         <f>(AM38*AN38)/AO38</f>
-        <v>-9037830.969101131</v>
+        <v>-18281067.187500015</v>
       </c>
       <c r="AQ38">
         <f>elasticity_comm*(base_use_comm-shortage_af_COM)</f>
-        <v>-7521.1670188562566</v>
+        <v>-13674.849125193194</v>
       </c>
       <c r="AR38" s="64">
         <f>IF(shortage_COM&lt;=lowerbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-lowerbound_COM)*EXP((LN((base_use_comm*(1-lowerbound_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)))), IF(shortage_COM&gt;=upperbound_COM,((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm*(1-upperbound_COM))*EXP((LN((base_use_comm*(1-upperbound_COM))/coeff_comm))/elasticity_comm))/(elasticity_comm + 1)), ((elasticity_comm*base_use_comm*EXP((LN(base_use_comm/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))-((elasticity_comm*(base_use_comm-shortage_af_COM)*EXP((LN((base_use_comm-shortage_af_COM)/coeff_comm))/elasticity_comm))/(elasticity_comm + 1))))</f>
-        <v>498851244.08505064</v>
+        <v>115694027.16101466</v>
       </c>
       <c r="AS38">
         <f>elasticity_lndscp*base_use_lndscp</f>
-        <v>-89999.1</v>
+        <v>-44999.55</v>
       </c>
       <c r="AT38">
         <f>EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp)</f>
@@ -4597,27 +4597,27 @@
       </c>
       <c r="AU38">
         <f>elasticity_lndscp + 1</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AV38" s="11">
         <f>(AS38*AT38)/AU38</f>
-        <v>-97499025.000000089</v>
+        <v>-36562134.37500003</v>
       </c>
       <c r="AW38">
         <f>elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)</f>
-        <v>12690.946543206474</v>
+        <v>6345.4732716032368</v>
       </c>
       <c r="AX38" s="64">
         <f>IF(shortage_LNDSCP&lt;=$U$14,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-low_bound_lndscp)*EXP((LN((base_use_lndscp*(1-low_bound_lndscp)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)))), IF(shortage_LNDSCP&gt;=upperbound_LNDSCP,((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp*(1-upperbound_LNDSCP))*EXP((LN((base_use_lndscp*(1-upperbound_LNDSCP))/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1)), ((elasticity_lndscp*base_use_lndscp*EXP((LN(base_use_lndscp/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))-((elasticity_lndscp*(base_use_lndscp-shortage_af_LNDSCP)*EXP((LN((base_use_lndscp-shortage_af_LNDSCP)/coeff_lndscp))/elasticity_lndscp))/(elasticity_lndscp + 1))))</f>
-        <v>495861145.30289018</v>
+        <v>4477281615.6249981</v>
       </c>
       <c r="AY38" s="48">
         <f t="shared" si="20"/>
-        <v>19078.821907681722</v>
+        <v>20076.910468541635</v>
       </c>
       <c r="AZ38" s="144">
         <f t="shared" si="14"/>
-        <v>26403482129.485783</v>
+        <v>27784752608.754646</v>
       </c>
       <c r="BA38" s="65">
         <f t="shared" si="15"/>
@@ -4960,19 +4960,19 @@
       </c>
       <c r="R45" s="50">
         <f t="shared" ref="R45:R63" si="38">AF20/D45</f>
-        <v>712.02608956412109</v>
+        <v>686.31383242316451</v>
       </c>
       <c r="S45" s="50">
         <f t="shared" ref="S45:S63" si="39">AL20/F45</f>
-        <v>679.94725234587645</v>
+        <v>664.75116569798843</v>
       </c>
       <c r="T45" s="50">
         <f t="shared" ref="T45:T63" si="40">AR20/H45</f>
-        <v>711.98583096596383</v>
+        <v>683.16574641332227</v>
       </c>
       <c r="U45" s="50">
         <f t="shared" ref="U45:U63" si="41">AX20/J45</f>
-        <v>699.65362111474315</v>
+        <v>754.45046831970683</v>
       </c>
       <c r="V45" s="41"/>
       <c r="W45" s="41"/>
@@ -5047,19 +5047,19 @@
       </c>
       <c r="R46" s="50">
         <f t="shared" si="38"/>
-        <v>783.20054988361289</v>
+        <v>725.96229728625383</v>
       </c>
       <c r="S46" s="50">
         <f t="shared" si="39"/>
-        <v>711.9456498559814</v>
+        <v>680.04058835612602</v>
       </c>
       <c r="T46" s="50">
         <f t="shared" si="40"/>
-        <v>783.01147260005166</v>
+        <v>719.1056254713161</v>
       </c>
       <c r="U46" s="50">
         <f t="shared" si="41"/>
-        <v>756.86297016028038</v>
+        <v>888.03702820200306</v>
       </c>
       <c r="V46" s="41"/>
       <c r="W46" s="41"/>
@@ -5134,19 +5134,19 @@
       </c>
       <c r="R47" s="50">
         <f t="shared" si="38"/>
-        <v>865.2572307064346</v>
+        <v>769.3617258091283</v>
       </c>
       <c r="S47" s="50">
         <f t="shared" si="39"/>
-        <v>746.17347563082524</v>
+        <v>695.89787945164392</v>
       </c>
       <c r="T47" s="50">
         <f t="shared" si="40"/>
-        <v>864.75550662935916</v>
+        <v>758.13532682494645</v>
       </c>
       <c r="U47" s="50">
         <f t="shared" si="41"/>
-        <v>823.41368806109824</v>
+        <v>1062.2959450257169</v>
       </c>
       <c r="V47" s="41"/>
       <c r="W47" s="41"/>
@@ -5221,19 +5221,19 @@
       </c>
       <c r="R48" s="50">
         <f t="shared" si="38"/>
-        <v>960.32000025229956</v>
+        <v>816.98908705526526</v>
       </c>
       <c r="S48" s="50">
         <f t="shared" si="39"/>
-        <v>782.82318022574248</v>
+        <v>712.3509802167348</v>
       </c>
       <c r="T48" s="50">
         <f t="shared" si="40"/>
-        <v>959.263211697202</v>
+        <v>800.61111576639303</v>
       </c>
       <c r="U48" s="50">
         <f t="shared" si="41"/>
-        <v>901.67745784176077</v>
+        <v>1294.7902656972365</v>
       </c>
       <c r="V48" s="41"/>
       <c r="W48" s="41"/>
@@ -5308,19 +5308,19 @@
       </c>
       <c r="R49" s="50">
         <f t="shared" si="38"/>
-        <v>1071.0100156205006</v>
+        <v>869.39711009765369</v>
       </c>
       <c r="S49" s="50">
         <f t="shared" si="39"/>
-        <v>822.10659599861606</v>
+        <v>729.42952366326165</v>
       </c>
       <c r="T49" s="50">
         <f t="shared" si="40"/>
-        <v>1069.044204483489</v>
+        <v>846.940452179776</v>
       </c>
       <c r="U49" s="50">
         <f t="shared" si="41"/>
-        <v>994.8746116710181</v>
+        <v>1613.1373849124095</v>
       </c>
       <c r="V49" s="41"/>
       <c r="W49" s="41"/>
@@ -5395,19 +5395,19 @@
       </c>
       <c r="R50" s="50">
         <f t="shared" si="38"/>
-        <v>1200.5811621065909</v>
+        <v>927.22874226141789</v>
       </c>
       <c r="S50" s="50">
         <f t="shared" si="39"/>
-        <v>864.25714807086797</v>
+        <v>747.16495576574005</v>
       </c>
       <c r="T50" s="50">
         <f t="shared" si="40"/>
-        <v>1197.194148954329</v>
+        <v>897.59080835945201</v>
       </c>
       <c r="U50" s="50">
         <f t="shared" si="41"/>
-        <v>1107.4809275953969</v>
+        <v>2062.3996698995493</v>
       </c>
       <c r="V50" s="41"/>
       <c r="W50" s="41"/>
@@ -5482,19 +5482,19 @@
       </c>
       <c r="R51" s="50">
         <f t="shared" si="38"/>
-        <v>1353.0976106635433</v>
+        <v>991.23484258243843</v>
       </c>
       <c r="S51" s="50">
         <f t="shared" si="39"/>
-        <v>909.53234596395259</v>
+        <v>765.59066666018964</v>
       </c>
       <c r="T51" s="50">
         <f t="shared" si="40"/>
-        <v>1347.5526419659211</v>
+        <v>953.10026314547542</v>
       </c>
       <c r="U51" s="50">
         <f t="shared" si="41"/>
-        <v>1245.8882214519051</v>
+        <v>2719.3391982580661</v>
       </c>
       <c r="V51" s="41"/>
       <c r="W51" s="41"/>
@@ -5569,19 +5569,19 @@
       </c>
       <c r="R52" s="50">
         <f t="shared" si="38"/>
-        <v>1533.6682628385406</v>
+        <v>1062.2959450257174</v>
       </c>
       <c r="S52" s="50">
         <f t="shared" si="39"/>
-        <v>958.21659509421215</v>
+        <v>784.74213279750245</v>
       </c>
       <c r="T52" s="50">
         <f t="shared" si="40"/>
-        <v>1524.9093232886014</v>
+        <v>1014.0902838039974</v>
       </c>
       <c r="U52" s="50">
         <f t="shared" si="41"/>
-        <v>1419.5215186730529</v>
+        <v>3721.5376659196286</v>
       </c>
       <c r="V52" s="41"/>
       <c r="W52" s="41"/>
@@ -5656,19 +5656,19 @@
       </c>
       <c r="R53" s="50">
         <f t="shared" si="38"/>
-        <v>1748.7586402698719</v>
+        <v>1141.4491711053656</v>
       </c>
       <c r="S53" s="50">
         <f t="shared" si="39"/>
-        <v>1010.624373271579</v>
+        <v>804.65707108832135</v>
       </c>
       <c r="T53" s="50">
         <f t="shared" si="40"/>
-        <v>1735.2747150774885</v>
+        <v>1081.2812152754052</v>
       </c>
       <c r="U53" s="50">
         <f t="shared" si="41"/>
-        <v>1642.8215766435719</v>
+        <v>5331.0913514836884</v>
       </c>
       <c r="V53" s="42"/>
       <c r="W53" s="42"/>
@@ -5743,19 +5743,19 @@
       </c>
       <c r="R54" s="50">
         <f t="shared" si="38"/>
-        <v>2006.6090810514656</v>
+        <v>1229.9216978214797</v>
       </c>
       <c r="S54" s="50">
         <f t="shared" si="39"/>
-        <v>1067.1038242936959</v>
+        <v>825.37560618636269</v>
       </c>
       <c r="T54" s="50">
         <f t="shared" si="40"/>
-        <v>1986.2385722343481</v>
+        <v>1155.5111366008798</v>
       </c>
       <c r="U54" s="50">
         <f t="shared" si="41"/>
-        <v>1938.9734896890113</v>
+        <v>8085.9604325751707</v>
       </c>
       <c r="V54" s="41"/>
       <c r="W54" s="41"/>
@@ -5830,19 +5830,19 @@
       </c>
       <c r="R55" s="50">
         <f t="shared" si="38"/>
-        <v>2317.8001369653712</v>
+        <v>1329.1726243698765</v>
       </c>
       <c r="S55" s="50">
         <f t="shared" si="39"/>
-        <v>1128.0408288299159</v>
+        <v>846.94045217977634</v>
       </c>
       <c r="T55" s="50">
         <f t="shared" si="40"/>
-        <v>2287.4474364334533</v>
+        <v>1237.7589270744008</v>
       </c>
       <c r="U55" s="50">
         <f t="shared" si="41"/>
-        <v>2347.4396939333778</v>
+        <v>13198.463623396112</v>
       </c>
       <c r="V55" s="41"/>
       <c r="W55" s="41"/>
@@ -5917,19 +5917,19 @@
       </c>
       <c r="R56" s="50">
         <f t="shared" si="38"/>
-        <v>2696.0236711098801</v>
+        <v>1440.945672389603</v>
       </c>
       <c r="S56" s="50">
         <f t="shared" si="39"/>
-        <v>1193.8636222575726</v>
+        <v>869.39711009765313</v>
       </c>
       <c r="T56" s="50">
         <f t="shared" si="40"/>
-        <v>2651.2458478777321</v>
+        <v>1329.1726243698768</v>
       </c>
       <c r="U56" s="50">
         <f t="shared" si="41"/>
-        <v>2940.6233722030502</v>
+        <v>23751.339150405194</v>
       </c>
       <c r="V56" s="41"/>
       <c r="W56" s="41"/>
@@ -6004,19 +6004,19 @@
       </c>
       <c r="R57" s="50">
         <f t="shared" si="38"/>
-        <v>3159.1441898934386</v>
+        <v>1567.3359601671345</v>
       </c>
       <c r="S57" s="50">
         <f t="shared" si="39"/>
-        <v>1265.048040193074</v>
+        <v>892.79408279231507</v>
       </c>
       <c r="T57" s="50">
         <f t="shared" si="40"/>
-        <v>3093.5441081608674</v>
+        <v>1431.1044734011321</v>
       </c>
       <c r="U57" s="50">
         <f t="shared" si="41"/>
-        <v>2971.5328426499054</v>
+        <v>26830.876935307166</v>
       </c>
       <c r="V57" s="41"/>
       <c r="W57" s="41"/>
@@ -6091,19 +6091,19 @@
       </c>
       <c r="R58" s="50">
         <f t="shared" si="38"/>
-        <v>3730.6738723917438</v>
+        <v>1710.8751983862787</v>
       </c>
       <c r="S58" s="50">
         <f t="shared" si="39"/>
-        <v>1342.1234854490674</v>
+        <v>917.18310893065632</v>
       </c>
       <c r="T58" s="50">
         <f t="shared" si="40"/>
-        <v>3635.0023832211177</v>
+        <v>1545.1544854963138</v>
       </c>
       <c r="U58" s="50">
         <f t="shared" si="41"/>
-        <v>2759.2804967463403</v>
+        <v>24914.385725642365</v>
       </c>
       <c r="V58" s="41"/>
       <c r="W58" s="41"/>
@@ -6178,19 +6178,19 @@
       </c>
       <c r="R59" s="50">
         <f t="shared" si="38"/>
-        <v>4441.8436573491754</v>
+        <v>1874.6411904124654</v>
       </c>
       <c r="S59" s="50">
         <f t="shared" si="39"/>
-        <v>1425.6797253993479</v>
+        <v>942.61941802108777</v>
       </c>
       <c r="T59" s="50">
         <f t="shared" si="40"/>
-        <v>4302.66055482301</v>
+        <v>1673.2248910675694</v>
       </c>
       <c r="U59" s="50">
         <f t="shared" si="41"/>
-        <v>2575.3284636299177</v>
+        <v>23253.426677266209</v>
       </c>
       <c r="V59" s="41"/>
       <c r="W59" s="41"/>
@@ -6265,19 +6265,19 @@
       </c>
       <c r="R60" s="50">
         <f t="shared" si="38"/>
-        <v>5334.5429691035642</v>
+        <v>2062.3996698995447</v>
       </c>
       <c r="S60" s="50">
         <f t="shared" si="39"/>
-        <v>1516.3746466706866</v>
+        <v>969.16200862023595</v>
       </c>
       <c r="T60" s="50">
         <f t="shared" si="40"/>
-        <v>5132.2022009093434</v>
+        <v>1817.5886295583018</v>
       </c>
       <c r="U60" s="50">
         <f t="shared" si="41"/>
-        <v>2414.3704346530476</v>
+        <v>21800.087509937068</v>
       </c>
       <c r="V60" s="41"/>
       <c r="W60" s="41"/>
@@ -6352,19 +6352,19 @@
       </c>
       <c r="R61" s="50">
         <f t="shared" si="38"/>
-        <v>6465.5406970925205</v>
+        <v>2278.789549341665</v>
       </c>
       <c r="S61" s="50">
         <f t="shared" si="39"/>
-        <v>1614.9431152142658</v>
+        <v>996.87395210806267</v>
       </c>
       <c r="T61" s="50">
         <f t="shared" si="40"/>
-        <v>6171.1298270452899</v>
+        <v>1980.9760552011996</v>
       </c>
       <c r="U61" s="50">
         <f t="shared" si="41"/>
-        <v>2272.3486443793386</v>
+        <v>20517.729421117238</v>
       </c>
       <c r="V61" s="41"/>
       <c r="W61" s="41"/>
@@ -6439,19 +6439,19 @@
       </c>
       <c r="R62" s="50">
         <f t="shared" si="38"/>
-        <v>7912.6204469091936</v>
+        <v>2529.5670010723097</v>
       </c>
       <c r="S62" s="50">
         <f t="shared" si="39"/>
-        <v>1722.207114752877</v>
+        <v>1025.8227246956724</v>
       </c>
       <c r="T62" s="50">
         <f t="shared" si="40"/>
-        <v>7483.2635587477707</v>
+        <v>2166.6854568175727</v>
       </c>
       <c r="U62" s="50">
         <f t="shared" si="41"/>
-        <v>2146.1070530249308</v>
+        <v>19377.855564388501</v>
       </c>
       <c r="V62" s="41"/>
       <c r="W62" s="41"/>
@@ -6526,19 +6526,19 @@
       </c>
       <c r="R63" s="50">
         <f t="shared" si="38"/>
-        <v>12229.897699905789</v>
+        <v>3164.9548108783647</v>
       </c>
       <c r="S63" s="50">
         <f t="shared" si="39"/>
-        <v>1966.6166647308698</v>
+        <v>1087.7248999972071</v>
       </c>
       <c r="T63" s="50">
         <f t="shared" si="40"/>
-        <v>11305.562118565322</v>
+        <v>2621.9960886633216</v>
       </c>
       <c r="U63" s="50">
         <f t="shared" si="41"/>
-        <v>1931.496347722438</v>
+        <v>17440.070007949656</v>
       </c>
       <c r="V63" s="41"/>
       <c r="W63" s="41"/>
@@ -6635,12 +6635,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Metadata xmlns="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c" xsi:nil="true"/>
-    <Notes xmlns="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6874,28 +6874,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Metadata xmlns="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c" xsi:nil="true"/>
+    <Notes xmlns="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB85D8AC-4DEA-4D66-8105-40ECD4B542B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEF16BB-3AEF-4926-94B8-DF9556B55AE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8ca2015b-1270-41a8-9966-06a19c2d4f3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="C8A5693F-CB4F-4469-AD8F-971CCDC8DC5C"/>
-    <ds:schemaRef ds:uri="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6921,9 +6911,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEF16BB-3AEF-4926-94B8-DF9556B55AE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB85D8AC-4DEA-4D66-8105-40ECD4B542B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8ca2015b-1270-41a8-9966-06a19c2d4f3a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="C8A5693F-CB4F-4469-AD8F-971CCDC8DC5C"/>
+    <ds:schemaRef ds:uri="c8a5693f-cb4f-4469-ad8f-971ccdc8dc5c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>